--- a/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9830585787269625</v>
+        <v>0.9944556970609326</v>
       </c>
       <c r="D2">
-        <v>1.004796654344748</v>
+        <v>1.015188125991967</v>
       </c>
       <c r="E2">
-        <v>0.9907028111265803</v>
+        <v>1.000793036598303</v>
       </c>
       <c r="F2">
-        <v>0.9916277898736293</v>
+        <v>1.015010327459341</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038950916471134</v>
+        <v>1.040205343116718</v>
       </c>
       <c r="J2">
-        <v>1.005758087896093</v>
+        <v>1.016803511376669</v>
       </c>
       <c r="K2">
-        <v>1.016189566203841</v>
+        <v>1.026439844839815</v>
       </c>
       <c r="L2">
-        <v>1.00229320837859</v>
+        <v>1.012241334207197</v>
       </c>
       <c r="M2">
-        <v>1.003205008446466</v>
+        <v>1.026264431576752</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9934001740131491</v>
+        <v>1.003248326361714</v>
       </c>
       <c r="D3">
-        <v>1.012938583499678</v>
+        <v>1.022110709218339</v>
       </c>
       <c r="E3">
-        <v>0.9997914780079208</v>
+        <v>1.008193554507649</v>
       </c>
       <c r="F3">
-        <v>1.001901326911348</v>
+        <v>1.022914443645876</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042581692345007</v>
+        <v>1.04271391311083</v>
       </c>
       <c r="J3">
-        <v>1.014072388322698</v>
+        <v>1.023650828726012</v>
       </c>
       <c r="K3">
-        <v>1.023408546723593</v>
+        <v>1.032468284912079</v>
       </c>
       <c r="L3">
-        <v>1.010427027607297</v>
+        <v>1.018722659827452</v>
       </c>
       <c r="M3">
-        <v>1.012509937574078</v>
+        <v>1.033262290334575</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998122674025882</v>
+        <v>1.008743802332488</v>
       </c>
       <c r="D4">
-        <v>1.017989541691384</v>
+        <v>1.026439794733864</v>
       </c>
       <c r="E4">
-        <v>1.005428457517912</v>
+        <v>1.012825189550899</v>
       </c>
       <c r="F4">
-        <v>1.008279754823677</v>
+        <v>1.027861463431366</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044814967830719</v>
+        <v>1.044267763032155</v>
       </c>
       <c r="J4">
-        <v>1.019220776618559</v>
+        <v>1.027926454857833</v>
       </c>
       <c r="K4">
-        <v>1.027875590882541</v>
+        <v>1.036229253022038</v>
       </c>
       <c r="L4">
-        <v>1.015461804400156</v>
+        <v>1.022771251428473</v>
       </c>
       <c r="M4">
-        <v>1.018279267146864</v>
+        <v>1.037634863607936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00244623282319</v>
+        <v>1.011010687113341</v>
       </c>
       <c r="D5">
-        <v>1.020064834507182</v>
+        <v>1.028225966570918</v>
       </c>
       <c r="E5">
-        <v>1.007744314757578</v>
+        <v>1.014737110098962</v>
       </c>
       <c r="F5">
-        <v>1.010901843541773</v>
+        <v>1.029903620110734</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045727959966721</v>
+        <v>1.044905274950492</v>
       </c>
       <c r="J5">
-        <v>1.021333931085481</v>
+        <v>1.029689096830798</v>
       </c>
       <c r="K5">
-        <v>1.029708294464383</v>
+        <v>1.037778889754434</v>
       </c>
       <c r="L5">
-        <v>1.01752788419705</v>
+        <v>1.024440642385949</v>
       </c>
       <c r="M5">
-        <v>1.02064910375901</v>
+        <v>1.039438150338729</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002885011099087</v>
+        <v>1.011388843429356</v>
       </c>
       <c r="D6">
-        <v>1.02041056793963</v>
+        <v>1.028523952163045</v>
       </c>
       <c r="E6">
-        <v>1.008130115055291</v>
+        <v>1.015056129242047</v>
       </c>
       <c r="F6">
-        <v>1.011338755684397</v>
+        <v>1.030244372847253</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04587978916349</v>
+        <v>1.04501141776068</v>
       </c>
       <c r="J6">
-        <v>1.021685847398426</v>
+        <v>1.029983071992663</v>
       </c>
       <c r="K6">
-        <v>1.030013457534805</v>
+        <v>1.038037289519314</v>
       </c>
       <c r="L6">
-        <v>1.017871934885038</v>
+        <v>1.024719084927224</v>
       </c>
       <c r="M6">
-        <v>1.021043874178827</v>
+        <v>1.039738943373091</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998476984696915</v>
+        <v>1.00877425937722</v>
       </c>
       <c r="D7">
-        <v>1.018017456152794</v>
+        <v>1.026463791610436</v>
       </c>
       <c r="E7">
-        <v>1.005459608505962</v>
+        <v>1.012850872156196</v>
       </c>
       <c r="F7">
-        <v>1.008315018500758</v>
+        <v>1.027888895302633</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04482726660223</v>
+        <v>1.044276342193573</v>
       </c>
       <c r="J7">
-        <v>1.019249208821726</v>
+        <v>1.027950141372249</v>
       </c>
       <c r="K7">
-        <v>1.027900252869758</v>
+        <v>1.036250080513725</v>
       </c>
       <c r="L7">
-        <v>1.015489604974907</v>
+        <v>1.022793683481316</v>
       </c>
       <c r="M7">
-        <v>1.018311145745313</v>
+        <v>1.037659093659219</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9866148525365966</v>
+        <v>0.9974692801405914</v>
       </c>
       <c r="D8">
-        <v>1.007595796301604</v>
+        <v>1.01756016120276</v>
       </c>
       <c r="E8">
-        <v>0.993827775366745</v>
+        <v>1.003328083869592</v>
       </c>
       <c r="F8">
-        <v>0.9951587806099411</v>
+        <v>1.01771783673185</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040203219995935</v>
+        <v>1.041068045552646</v>
       </c>
       <c r="J8">
-        <v>1.008618584889504</v>
+        <v>1.019151148760455</v>
       </c>
       <c r="K8">
-        <v>1.018673851412252</v>
+        <v>1.028507408663178</v>
       </c>
       <c r="L8">
-        <v>1.00509200759938</v>
+        <v>1.01446316207933</v>
       </c>
       <c r="M8">
-        <v>1.006404731103624</v>
+        <v>1.028663040068771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9608761752362448</v>
+        <v>0.975909094720728</v>
       </c>
       <c r="D9">
-        <v>0.9873588844065834</v>
+        <v>1.000607672456658</v>
       </c>
       <c r="E9">
-        <v>0.9712247556634229</v>
+        <v>0.9852248773917521</v>
       </c>
       <c r="F9">
-        <v>0.969645833574874</v>
+        <v>0.9983840951119339</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031064750793949</v>
+        <v>1.03483865350148</v>
       </c>
       <c r="J9">
-        <v>0.9878903878816789</v>
+        <v>1.002342217914398</v>
       </c>
       <c r="K9">
-        <v>1.000660439426423</v>
+        <v>1.0136908982869</v>
       </c>
       <c r="L9">
-        <v>0.9848026067031412</v>
+        <v>0.9985623073067463</v>
       </c>
       <c r="M9">
-        <v>0.9832513636889502</v>
+        <v>1.011503443763259</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9416104402079863</v>
+        <v>0.9601828317387365</v>
       </c>
       <c r="D10">
-        <v>0.9722538141566037</v>
+        <v>0.9882750119660663</v>
       </c>
       <c r="E10">
-        <v>0.9543334838753795</v>
+        <v>0.9720713284168734</v>
       </c>
       <c r="F10">
-        <v>0.9506116155911726</v>
+        <v>0.9843380080779931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024133428642791</v>
+        <v>1.030225989181821</v>
       </c>
       <c r="J10">
-        <v>0.972348797786625</v>
+        <v>0.9900704016690162</v>
       </c>
       <c r="K10">
-        <v>0.9871427809367282</v>
+        <v>1.002859241601231</v>
       </c>
       <c r="L10">
-        <v>0.9695792978497036</v>
+        <v>0.9869638421002891</v>
       </c>
       <c r="M10">
-        <v>0.9659337705438434</v>
+        <v>0.9989959221464056</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9326260213315856</v>
+        <v>0.9529833558934392</v>
       </c>
       <c r="D11">
-        <v>0.9652253537136736</v>
+        <v>0.9826405524726926</v>
       </c>
       <c r="E11">
-        <v>0.946466605579534</v>
+        <v>0.9660648907291199</v>
       </c>
       <c r="F11">
-        <v>0.9417528744490817</v>
+        <v>0.9779244528110749</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020881822709535</v>
+        <v>1.028099777425509</v>
       </c>
       <c r="J11">
-        <v>0.9650974785807364</v>
+        <v>0.9844518841345166</v>
       </c>
       <c r="K11">
-        <v>0.980834279702356</v>
+        <v>0.9978974397512139</v>
       </c>
       <c r="L11">
-        <v>0.9624739892156449</v>
+        <v>0.9816564614901536</v>
       </c>
       <c r="M11">
-        <v>0.9578637039417</v>
+        <v>0.9932750451830306</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9291765015337459</v>
+        <v>0.9502434555359431</v>
       </c>
       <c r="D12">
-        <v>0.9625297585077294</v>
+        <v>0.9804983333605474</v>
       </c>
       <c r="E12">
-        <v>0.9434481006366323</v>
+        <v>0.9637816267448857</v>
       </c>
       <c r="F12">
-        <v>0.9383545703972102</v>
+        <v>0.975486505194585</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019630758577445</v>
+        <v>1.027288606019083</v>
       </c>
       <c r="J12">
-        <v>0.9623131160275437</v>
+        <v>0.9823137949140682</v>
       </c>
       <c r="K12">
-        <v>0.9784118473221927</v>
+        <v>0.9960089407913627</v>
       </c>
       <c r="L12">
-        <v>0.9597453291369351</v>
+        <v>0.9796372403112809</v>
       </c>
       <c r="M12">
-        <v>0.9547664236995844</v>
+        <v>0.991098912147699</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9299218143279854</v>
+        <v>0.9508342741486014</v>
       </c>
       <c r="D13">
-        <v>0.9631120328854056</v>
+        <v>0.9809601704916313</v>
       </c>
       <c r="E13">
-        <v>0.9441001923032264</v>
+        <v>0.9642738556865699</v>
       </c>
       <c r="F13">
-        <v>0.9390886784640049</v>
+        <v>0.9760120774226534</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019901180443205</v>
+        <v>1.027463609992677</v>
       </c>
       <c r="J13">
-        <v>0.9629147193776307</v>
+        <v>0.9827748314323657</v>
       </c>
       <c r="K13">
-        <v>0.9789352520312966</v>
+        <v>0.9964161710960543</v>
       </c>
       <c r="L13">
-        <v>0.9603349132014271</v>
+        <v>0.9800726235510919</v>
       </c>
       <c r="M13">
-        <v>0.9554355720355454</v>
+        <v>0.9915681097923197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9323432794462072</v>
+        <v>0.9527582606067443</v>
       </c>
       <c r="D14">
-        <v>0.9650043444530652</v>
+        <v>0.9824645149404453</v>
       </c>
       <c r="E14">
-        <v>0.9462191502677634</v>
+        <v>0.9658772555682292</v>
       </c>
       <c r="F14">
-        <v>0.9414742687591701</v>
+        <v>0.9777241043801285</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020779329828257</v>
+        <v>1.028033175340124</v>
       </c>
       <c r="J14">
-        <v>0.9648692600061177</v>
+        <v>0.9842762260199857</v>
       </c>
       <c r="K14">
-        <v>0.9806357275484138</v>
+        <v>0.9977422930739909</v>
       </c>
       <c r="L14">
-        <v>0.9622503434882145</v>
+        <v>0.9814905594723167</v>
       </c>
       <c r="M14">
-        <v>0.9576098078335048</v>
+        <v>0.9930962426678066</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9338198030322771</v>
+        <v>0.9539347531168998</v>
       </c>
       <c r="D15">
-        <v>0.9661586131105905</v>
+        <v>0.9833846869390043</v>
       </c>
       <c r="E15">
-        <v>0.9475114827292586</v>
+        <v>0.9668580649009376</v>
       </c>
       <c r="F15">
-        <v>0.9429293140840299</v>
+        <v>0.9787713718673156</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021314459698562</v>
+        <v>1.028381200657643</v>
       </c>
       <c r="J15">
-        <v>0.9660610455754879</v>
+        <v>0.9851943354639036</v>
       </c>
       <c r="K15">
-        <v>0.9816725884868095</v>
+        <v>0.9985531833008228</v>
       </c>
       <c r="L15">
-        <v>0.9634182345206396</v>
+        <v>0.9823576960632113</v>
       </c>
       <c r="M15">
-        <v>0.9589357436975676</v>
+        <v>0.9940308242014551</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9421919098946767</v>
+        <v>0.9606518423481474</v>
       </c>
       <c r="D16">
-        <v>0.9727090609739319</v>
+        <v>0.9886423341829363</v>
       </c>
       <c r="E16">
-        <v>0.9548428670545983</v>
+        <v>0.9724629574343976</v>
       </c>
       <c r="F16">
-        <v>0.9511853368061614</v>
+        <v>0.9847561917789689</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024343499564361</v>
+        <v>1.030364216916493</v>
       </c>
       <c r="J16">
-        <v>0.9728180500320037</v>
+        <v>0.9904364281916975</v>
       </c>
       <c r="K16">
-        <v>0.9875510006997127</v>
+        <v>1.00318243729247</v>
       </c>
       <c r="L16">
-        <v>0.9700390513022488</v>
+        <v>0.9873096609526872</v>
       </c>
       <c r="M16">
-        <v>0.9664562064775059</v>
+        <v>0.99936873733333</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9472615300741208</v>
+        <v>0.9647562512451111</v>
       </c>
       <c r="D17">
-        <v>0.9766799857931786</v>
+        <v>0.9918581660931073</v>
       </c>
       <c r="E17">
-        <v>0.9592851646818369</v>
+        <v>0.9758919260345827</v>
       </c>
       <c r="F17">
-        <v>0.9561893950399291</v>
+        <v>0.988417715524341</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026172921236187</v>
+        <v>1.031572265914842</v>
       </c>
       <c r="J17">
-        <v>0.9769089126208599</v>
+        <v>0.9936395702217747</v>
       </c>
       <c r="K17">
-        <v>0.9911096390857596</v>
+        <v>1.006010473205121</v>
       </c>
       <c r="L17">
-        <v>0.9740468292471284</v>
+        <v>0.9903362867969931</v>
       </c>
       <c r="M17">
-        <v>0.9710118108280764</v>
+        <v>1.002631918251529</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9501578301071344</v>
+        <v>0.9671132033854627</v>
       </c>
       <c r="D18">
-        <v>0.9789499975785934</v>
+        <v>0.9937058937591896</v>
       </c>
       <c r="E18">
-        <v>0.9618239859308795</v>
+        <v>0.9778624078720676</v>
       </c>
       <c r="F18">
-        <v>0.959049850641207</v>
+        <v>0.9905218783800426</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027216286089355</v>
+        <v>1.032264617682747</v>
       </c>
       <c r="J18">
-        <v>0.9792456882354853</v>
+        <v>0.995478909907186</v>
       </c>
       <c r="K18">
-        <v>0.9931422509665857</v>
+        <v>1.007634163379768</v>
       </c>
       <c r="L18">
-        <v>0.976335914685033</v>
+        <v>0.9920745287640208</v>
       </c>
       <c r="M18">
-        <v>0.973614968845026</v>
+        <v>1.004506247061318</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9511355150596525</v>
+        <v>0.9679107706037799</v>
       </c>
       <c r="D19">
-        <v>0.9797164930863262</v>
+        <v>0.9943313113775271</v>
       </c>
       <c r="E19">
-        <v>0.962681143791917</v>
+        <v>0.9785294268845036</v>
       </c>
       <c r="F19">
-        <v>0.9600157014265799</v>
+        <v>0.9912341559689651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027568176891473</v>
+        <v>1.032498664852281</v>
       </c>
       <c r="J19">
-        <v>0.9800344305904123</v>
+        <v>0.9961013063820457</v>
       </c>
       <c r="K19">
-        <v>0.9938282991068227</v>
+        <v>1.008183543333703</v>
       </c>
       <c r="L19">
-        <v>0.9771085205813429</v>
+        <v>0.992662759350556</v>
       </c>
       <c r="M19">
-        <v>0.9744937799452087</v>
+        <v>1.005140568209637</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.946723991142116</v>
+        <v>0.9643197699677664</v>
       </c>
       <c r="D20">
-        <v>0.9762587931564284</v>
+        <v>0.9915160694731396</v>
       </c>
       <c r="E20">
-        <v>0.9588140438317512</v>
+        <v>0.9755271263414336</v>
       </c>
       <c r="F20">
-        <v>0.9556586378274035</v>
+        <v>0.9880281704769056</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025979130372501</v>
+        <v>1.031443937800015</v>
       </c>
       <c r="J20">
-        <v>0.976475187953316</v>
+        <v>0.9932989386182871</v>
       </c>
       <c r="K20">
-        <v>0.990732356854629</v>
+        <v>1.005709757239449</v>
       </c>
       <c r="L20">
-        <v>0.9736219374381473</v>
+        <v>0.9900143988125707</v>
       </c>
       <c r="M20">
-        <v>0.9705287178416997</v>
+        <v>1.002284848071358</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9316334651959423</v>
+        <v>0.9521935714172</v>
       </c>
       <c r="D21">
-        <v>0.9644495573318986</v>
+        <v>0.9820229301413452</v>
       </c>
       <c r="E21">
-        <v>0.9455979544343497</v>
+        <v>0.9654065843017526</v>
       </c>
       <c r="F21">
-        <v>0.9407748868843102</v>
+        <v>0.9772215439181087</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020521983708378</v>
+        <v>1.027866061418943</v>
       </c>
       <c r="J21">
-        <v>0.9642963217150797</v>
+        <v>0.9838355614121254</v>
       </c>
       <c r="K21">
-        <v>0.9801372652289645</v>
+        <v>0.9973530796435826</v>
       </c>
       <c r="L21">
-        <v>0.9616888794828806</v>
+        <v>0.9810743771303303</v>
       </c>
       <c r="M21">
-        <v>0.9569724299829744</v>
+        <v>0.9926477047182308</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9214846972181555</v>
+        <v>0.9441847666643466</v>
       </c>
       <c r="D22">
-        <v>0.9565253173636958</v>
+        <v>0.9757655991796582</v>
       </c>
       <c r="E22">
-        <v>0.9367215268220241</v>
+        <v>0.9587378930508046</v>
       </c>
       <c r="F22">
-        <v>0.9307828695724436</v>
+        <v>0.9701012277905435</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016836578336497</v>
+        <v>1.025491406961734</v>
       </c>
       <c r="J22">
-        <v>0.9561043977964573</v>
+        <v>0.9775864268072815</v>
       </c>
       <c r="K22">
-        <v>0.9730101785630639</v>
+        <v>0.9918329321408765</v>
       </c>
       <c r="L22">
-        <v>0.9536601651193005</v>
+        <v>0.9751736048280973</v>
       </c>
       <c r="M22">
-        <v>0.947862638938703</v>
+        <v>0.9862892010261363</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9269337652357458</v>
+        <v>0.9484695575439417</v>
       </c>
       <c r="D23">
-        <v>0.9607781092702378</v>
+        <v>0.9791120316633347</v>
       </c>
       <c r="E23">
-        <v>0.9414861993049798</v>
+        <v>0.9623041467352206</v>
       </c>
       <c r="F23">
-        <v>0.9361460120420148</v>
+        <v>0.9739089535797669</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018816664730642</v>
+        <v>1.026762889325728</v>
       </c>
       <c r="J23">
-        <v>0.9605028071500183</v>
+        <v>0.9809296004247162</v>
       </c>
       <c r="K23">
-        <v>0.9768368471369173</v>
+        <v>0.9947862516082351</v>
       </c>
       <c r="L23">
-        <v>0.9579711360904717</v>
+        <v>0.978330137832663</v>
       </c>
       <c r="M23">
-        <v>0.9527530754710031</v>
+        <v>0.9896903546106447</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9469670683453197</v>
+        <v>0.9645171111346428</v>
       </c>
       <c r="D24">
-        <v>0.9764492537822828</v>
+        <v>0.9916707344021859</v>
       </c>
       <c r="E24">
-        <v>0.9590270836991218</v>
+        <v>0.9756920546190916</v>
       </c>
       <c r="F24">
-        <v>0.9558986433088149</v>
+        <v>0.9882042861592651</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026066768965613</v>
+        <v>1.031501961558836</v>
       </c>
       <c r="J24">
-        <v>0.9766713210683681</v>
+        <v>0.9934529446002923</v>
       </c>
       <c r="K24">
-        <v>0.9909029668021662</v>
+        <v>1.005845717398387</v>
       </c>
       <c r="L24">
-        <v>0.9738140769970751</v>
+        <v>0.9901599296345645</v>
       </c>
       <c r="M24">
-        <v>0.9707471727826723</v>
+        <v>1.002441763464965</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.967860914686279</v>
+        <v>0.9817008085006488</v>
       </c>
       <c r="D25">
-        <v>0.9928450278563524</v>
+        <v>1.005157151126748</v>
       </c>
       <c r="E25">
-        <v>0.9773550013491337</v>
+        <v>0.9900801959585884</v>
       </c>
       <c r="F25">
-        <v>0.9765596652366179</v>
+        <v>1.00356920618138</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033560487657426</v>
+        <v>1.036524202715482</v>
       </c>
       <c r="J25">
-        <v>0.9935205013676568</v>
+        <v>1.006860106566844</v>
       </c>
       <c r="K25">
-        <v>1.005555440372822</v>
+        <v>1.017675933028662</v>
       </c>
       <c r="L25">
-        <v>0.990315327190859</v>
+        <v>1.002834481057387</v>
       </c>
       <c r="M25">
-        <v>0.9895330982035409</v>
+        <v>1.01611236634892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9944556970609326</v>
+        <v>0.9661727331976341</v>
       </c>
       <c r="D2">
-        <v>1.015188125991967</v>
+        <v>0.991120707439871</v>
       </c>
       <c r="E2">
-        <v>1.000793036598303</v>
+        <v>0.9766899215397828</v>
       </c>
       <c r="F2">
-        <v>1.015010327459341</v>
+        <v>0.9411386355956612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040205343116718</v>
+        <v>1.030725202949807</v>
       </c>
       <c r="J2">
-        <v>1.016803511376669</v>
+        <v>0.9894145323126502</v>
       </c>
       <c r="K2">
-        <v>1.026439844839815</v>
+        <v>1.002705146839969</v>
       </c>
       <c r="L2">
-        <v>1.012241334207197</v>
+        <v>0.9884838470956621</v>
       </c>
       <c r="M2">
-        <v>1.026264431576752</v>
+        <v>0.9534838355527125</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003248326361714</v>
+        <v>0.9749708632156578</v>
       </c>
       <c r="D3">
-        <v>1.022110709218339</v>
+        <v>0.9973975292070195</v>
       </c>
       <c r="E3">
-        <v>1.008193554507649</v>
+        <v>0.9840281976470401</v>
       </c>
       <c r="F3">
-        <v>1.022914443645876</v>
+        <v>0.9530321131303189</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04271391311083</v>
+        <v>1.032908961772863</v>
       </c>
       <c r="J3">
-        <v>1.023650828726012</v>
+        <v>0.9961679094754833</v>
       </c>
       <c r="K3">
-        <v>1.032468284912079</v>
+        <v>1.008063817792775</v>
       </c>
       <c r="L3">
-        <v>1.018722659827452</v>
+        <v>0.994869603752596</v>
       </c>
       <c r="M3">
-        <v>1.033262290334575</v>
+        <v>0.9643034524724017</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008743802332488</v>
+        <v>0.9804455940301073</v>
       </c>
       <c r="D4">
-        <v>1.026439794733864</v>
+        <v>1.001306490242138</v>
       </c>
       <c r="E4">
-        <v>1.012825189550899</v>
+        <v>0.9886016822356039</v>
       </c>
       <c r="F4">
-        <v>1.027861463431366</v>
+        <v>0.9604149386377151</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044267763032155</v>
+        <v>1.034253117228625</v>
       </c>
       <c r="J4">
-        <v>1.027926454857833</v>
+        <v>1.000363084270066</v>
       </c>
       <c r="K4">
-        <v>1.036229253022038</v>
+        <v>1.011389172612277</v>
       </c>
       <c r="L4">
-        <v>1.022771251428473</v>
+        <v>0.9988396498720992</v>
       </c>
       <c r="M4">
-        <v>1.037634863607936</v>
+        <v>0.9710158263635746</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011010687113341</v>
+        <v>0.9826987172683892</v>
       </c>
       <c r="D5">
-        <v>1.028225966570918</v>
+        <v>1.002915782565161</v>
       </c>
       <c r="E5">
-        <v>1.014737110098962</v>
+        <v>0.9904854817864414</v>
       </c>
       <c r="F5">
-        <v>1.029903620110734</v>
+        <v>0.9634498300631544</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044905274950492</v>
+        <v>1.034802689149132</v>
       </c>
       <c r="J5">
-        <v>1.029689096830798</v>
+        <v>1.002087840165738</v>
       </c>
       <c r="K5">
-        <v>1.037778889754434</v>
+        <v>1.012755423311369</v>
       </c>
       <c r="L5">
-        <v>1.024440642385949</v>
+        <v>1.000472590087199</v>
       </c>
       <c r="M5">
-        <v>1.039438150338729</v>
+        <v>0.9737741000243814</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011388843429356</v>
+        <v>0.9830742873511236</v>
       </c>
       <c r="D6">
-        <v>1.028523952163045</v>
+        <v>1.003184061049035</v>
       </c>
       <c r="E6">
-        <v>1.015056129242047</v>
+        <v>0.9907995792969652</v>
       </c>
       <c r="F6">
-        <v>1.030244372847253</v>
+        <v>0.9639555273799049</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04501141776068</v>
+        <v>1.034894081489486</v>
       </c>
       <c r="J6">
-        <v>1.029983071992663</v>
+        <v>1.002375232250951</v>
       </c>
       <c r="K6">
-        <v>1.038037289519314</v>
+        <v>1.012983023660314</v>
       </c>
       <c r="L6">
-        <v>1.024719084927224</v>
+        <v>1.000744725806023</v>
       </c>
       <c r="M6">
-        <v>1.039738943373091</v>
+        <v>0.9742336432622662</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00877425937722</v>
+        <v>0.9804758860765534</v>
       </c>
       <c r="D7">
-        <v>1.026463791610436</v>
+        <v>1.001328124342152</v>
       </c>
       <c r="E7">
-        <v>1.012850872156196</v>
+        <v>0.9886270028106485</v>
       </c>
       <c r="F7">
-        <v>1.027888895302633</v>
+        <v>0.9604557540486834</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044276342193573</v>
+        <v>1.034260520372688</v>
       </c>
       <c r="J7">
-        <v>1.027950141372249</v>
+        <v>1.000386279757733</v>
       </c>
       <c r="K7">
-        <v>1.036250080513725</v>
+        <v>1.011407550373444</v>
       </c>
       <c r="L7">
-        <v>1.022793683481316</v>
+        <v>0.9988616076744969</v>
       </c>
       <c r="M7">
-        <v>1.037659093659219</v>
+        <v>0.9710529257404188</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9974692801405914</v>
+        <v>0.9691937255868062</v>
       </c>
       <c r="D8">
-        <v>1.01756016120276</v>
+        <v>0.9932751721674707</v>
       </c>
       <c r="E8">
-        <v>1.003328083869592</v>
+        <v>0.979208038317581</v>
       </c>
       <c r="F8">
-        <v>1.01771783673185</v>
+        <v>0.9452268397367083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041068045552646</v>
+        <v>1.031478104875829</v>
       </c>
       <c r="J8">
-        <v>1.019151148760455</v>
+        <v>0.9917349225612312</v>
       </c>
       <c r="K8">
-        <v>1.028507408663178</v>
+        <v>1.004547012704242</v>
       </c>
       <c r="L8">
-        <v>1.01446316207933</v>
+        <v>0.9906772153757116</v>
       </c>
       <c r="M8">
-        <v>1.028663040068771</v>
+        <v>0.957203678810451</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.975909094720728</v>
+        <v>0.9474425539237432</v>
       </c>
       <c r="D9">
-        <v>1.000607672456658</v>
+        <v>0.9777861795691771</v>
       </c>
       <c r="E9">
-        <v>0.9852248773917521</v>
+        <v>0.961115743775977</v>
       </c>
       <c r="F9">
-        <v>0.9983840951119339</v>
+        <v>0.9156698248132153</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03483865350148</v>
+        <v>1.025996266576896</v>
       </c>
       <c r="J9">
-        <v>1.002342217914398</v>
+        <v>0.974998248990457</v>
       </c>
       <c r="K9">
-        <v>1.0136908982869</v>
+        <v>0.9912502444743345</v>
       </c>
       <c r="L9">
-        <v>0.9985623073067463</v>
+        <v>0.9748728531769612</v>
       </c>
       <c r="M9">
-        <v>1.011503443763259</v>
+        <v>0.9302972911234478</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9601828317387365</v>
+        <v>0.9313478608483957</v>
       </c>
       <c r="D10">
-        <v>0.9882750119660663</v>
+        <v>0.9663676852083576</v>
       </c>
       <c r="E10">
-        <v>0.9720713284168734</v>
+        <v>0.9477868004952877</v>
       </c>
       <c r="F10">
-        <v>0.9843380080779931</v>
+        <v>0.8935778321656858</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030225989181821</v>
+        <v>1.02186598753073</v>
       </c>
       <c r="J10">
-        <v>0.9900704016690162</v>
+        <v>0.9625773972495963</v>
       </c>
       <c r="K10">
-        <v>1.002859241601231</v>
+        <v>0.9813719452952716</v>
       </c>
       <c r="L10">
-        <v>0.9869638421002891</v>
+        <v>0.9631674253183313</v>
       </c>
       <c r="M10">
-        <v>0.9989959221464056</v>
+        <v>0.9101769501094862</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9529833558934392</v>
+        <v>0.9239027338698909</v>
       </c>
       <c r="D11">
-        <v>0.9826405524726926</v>
+        <v>0.9611005919432408</v>
       </c>
       <c r="E11">
-        <v>0.9660648907291199</v>
+        <v>0.9416383969432128</v>
       </c>
       <c r="F11">
-        <v>0.9779244528110749</v>
+        <v>0.8832791970505482</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028099777425509</v>
+        <v>1.019939568367107</v>
       </c>
       <c r="J11">
-        <v>0.9844518841345166</v>
+        <v>0.9568236517300661</v>
       </c>
       <c r="K11">
-        <v>0.9978974397512139</v>
+        <v>0.9767953689504352</v>
       </c>
       <c r="L11">
-        <v>0.9816564614901536</v>
+        <v>0.957751755856101</v>
       </c>
       <c r="M11">
-        <v>0.9932750451830306</v>
+        <v>0.9007980200008219</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9502434555359431</v>
+        <v>0.9210550988578736</v>
       </c>
       <c r="D12">
-        <v>0.9804983333605474</v>
+        <v>0.9590887453878566</v>
       </c>
       <c r="E12">
-        <v>0.9637816267448857</v>
+        <v>0.9392896925089881</v>
       </c>
       <c r="F12">
-        <v>0.975486505194585</v>
+        <v>0.8793252313972686</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027288606019083</v>
+        <v>1.019200547483807</v>
       </c>
       <c r="J12">
-        <v>0.9823137949140682</v>
+        <v>0.954621779229799</v>
       </c>
       <c r="K12">
-        <v>0.9960089407913627</v>
+        <v>0.9750440787712495</v>
       </c>
       <c r="L12">
-        <v>0.9796372403112809</v>
+        <v>0.9556803775589413</v>
       </c>
       <c r="M12">
-        <v>0.991098912147699</v>
+        <v>0.8971975677217692</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9508342741486014</v>
+        <v>0.9216698433486473</v>
       </c>
       <c r="D13">
-        <v>0.9809601704916313</v>
+        <v>0.9595229291614338</v>
       </c>
       <c r="E13">
-        <v>0.9642738556865699</v>
+        <v>0.9397965889551647</v>
       </c>
       <c r="F13">
-        <v>0.9760120774226534</v>
+        <v>0.8801795379060676</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027463609992677</v>
+        <v>1.019360182437889</v>
       </c>
       <c r="J13">
-        <v>0.9827748314323657</v>
+        <v>0.9550971688046914</v>
       </c>
       <c r="K13">
-        <v>0.9964161710960543</v>
+        <v>0.9754221787072421</v>
       </c>
       <c r="L13">
-        <v>0.9800726235510919</v>
+        <v>0.9561275406444365</v>
       </c>
       <c r="M13">
-        <v>0.9915681097923197</v>
+        <v>0.8979754684486195</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9527582606067443</v>
+        <v>0.9236690944228717</v>
       </c>
       <c r="D14">
-        <v>0.9824645149404453</v>
+        <v>0.960935468103908</v>
       </c>
       <c r="E14">
-        <v>0.9658772555682292</v>
+        <v>0.9414456312290632</v>
       </c>
       <c r="F14">
-        <v>0.9777241043801285</v>
+        <v>0.8829551079828885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028033175340124</v>
+        <v>1.019878977338204</v>
       </c>
       <c r="J14">
-        <v>0.9842762260199857</v>
+        <v>0.9566430182710219</v>
       </c>
       <c r="K14">
-        <v>0.9977422930739909</v>
+        <v>0.9766516964078631</v>
       </c>
       <c r="L14">
-        <v>0.9814905594723167</v>
+        <v>0.9575818043275554</v>
       </c>
       <c r="M14">
-        <v>0.9930962426678066</v>
+        <v>0.9005028964377824</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9539347531168998</v>
+        <v>0.9248896484748483</v>
       </c>
       <c r="D15">
-        <v>0.9833846869390043</v>
+        <v>0.9617982037436384</v>
       </c>
       <c r="E15">
-        <v>0.9668580649009376</v>
+        <v>0.9424527789496949</v>
       </c>
       <c r="F15">
-        <v>0.9787713718673156</v>
+        <v>0.8846475560600195</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028381200657643</v>
+        <v>1.020195422655813</v>
       </c>
       <c r="J15">
-        <v>0.9851943354639036</v>
+        <v>0.9575866174040584</v>
       </c>
       <c r="K15">
-        <v>0.9985531833008228</v>
+        <v>0.9774022230204725</v>
       </c>
       <c r="L15">
-        <v>0.9823576960632113</v>
+        <v>0.958469648790879</v>
       </c>
       <c r="M15">
-        <v>0.9940308242014551</v>
+        <v>0.9020441004274501</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9606518423481474</v>
+        <v>0.9318310828469618</v>
       </c>
       <c r="D16">
-        <v>0.9886423341829363</v>
+        <v>0.9667098874417434</v>
       </c>
       <c r="E16">
-        <v>0.9724629574343976</v>
+        <v>0.9481862426296639</v>
       </c>
       <c r="F16">
-        <v>0.9847561917789689</v>
+        <v>0.8942444018323166</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030364216916493</v>
+        <v>1.021990710752437</v>
       </c>
       <c r="J16">
-        <v>0.9904364281916975</v>
+        <v>0.9629506798904098</v>
       </c>
       <c r="K16">
-        <v>1.00318243729247</v>
+        <v>0.9816688596859179</v>
       </c>
       <c r="L16">
-        <v>0.9873096609526872</v>
+        <v>0.9635189204614413</v>
       </c>
       <c r="M16">
-        <v>0.99936873733333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9107840295459543</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9647562512451111</v>
+        <v>0.9360509964778132</v>
       </c>
       <c r="D17">
-        <v>0.9918581660931073</v>
+        <v>0.969700005045126</v>
       </c>
       <c r="E17">
-        <v>0.9758919260345827</v>
+        <v>0.9516764856460654</v>
       </c>
       <c r="F17">
-        <v>0.988417715524341</v>
+        <v>0.9000563584933012</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031572265914842</v>
+        <v>1.023078157148547</v>
       </c>
       <c r="J17">
-        <v>0.9936395702217747</v>
+        <v>0.9662096145672814</v>
       </c>
       <c r="K17">
-        <v>1.006010473205121</v>
+        <v>0.9842610126798641</v>
       </c>
       <c r="L17">
-        <v>0.9903362867969931</v>
+        <v>0.9665883936933956</v>
       </c>
       <c r="M17">
-        <v>1.002631918251529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9160773724032724</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9671132033854627</v>
+        <v>0.9384673021917274</v>
       </c>
       <c r="D18">
-        <v>0.9937058937591896</v>
+        <v>0.9714134812071075</v>
       </c>
       <c r="E18">
-        <v>0.9778624078720676</v>
+        <v>0.9536765665448516</v>
       </c>
       <c r="F18">
-        <v>0.9905218783800426</v>
+        <v>0.9033771399297738</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032264617682747</v>
+        <v>1.02369934560559</v>
       </c>
       <c r="J18">
-        <v>0.995478909907186</v>
+        <v>0.96807491623645</v>
       </c>
       <c r="K18">
-        <v>1.007634163379768</v>
+        <v>0.9857446000258169</v>
       </c>
       <c r="L18">
-        <v>0.9920745287640208</v>
+        <v>0.9683458632329465</v>
       </c>
       <c r="M18">
-        <v>1.004506247061318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9191018626255573</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9679107706037799</v>
+        <v>0.9392838373024757</v>
       </c>
       <c r="D19">
-        <v>0.9943313113775271</v>
+        <v>0.9719927266660472</v>
       </c>
       <c r="E19">
-        <v>0.9785294268845036</v>
+        <v>0.9543527069977786</v>
       </c>
       <c r="F19">
-        <v>0.9912341559689651</v>
+        <v>0.9044981896503342</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032498664852281</v>
+        <v>1.02390900627163</v>
       </c>
       <c r="J19">
-        <v>0.9961013063820457</v>
+        <v>0.9687051231498877</v>
       </c>
       <c r="K19">
-        <v>1.008183543333703</v>
+        <v>0.9862458245850267</v>
       </c>
       <c r="L19">
-        <v>0.992662759350556</v>
+        <v>0.9689397385446294</v>
       </c>
       <c r="M19">
-        <v>1.005140568209637</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9201228854213199</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9643197699677664</v>
+        <v>0.9356029740445709</v>
       </c>
       <c r="D20">
-        <v>0.9915160694731396</v>
+        <v>0.9693824049172071</v>
       </c>
       <c r="E20">
-        <v>0.9755271263414336</v>
+        <v>0.951305764305762</v>
       </c>
       <c r="F20">
-        <v>0.9880281704769056</v>
+        <v>0.8994400715351151</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031443937800015</v>
+        <v>1.022962857350667</v>
       </c>
       <c r="J20">
-        <v>0.9932989386182871</v>
+        <v>0.9658636958419365</v>
       </c>
       <c r="K20">
-        <v>1.005709757239449</v>
+        <v>0.9839858755385437</v>
       </c>
       <c r="L20">
-        <v>0.9900143988125707</v>
+        <v>0.9662625211161395</v>
       </c>
       <c r="M20">
-        <v>1.002284848071358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9155160730280797</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9521935714172</v>
+        <v>0.9230827314117613</v>
       </c>
       <c r="D21">
-        <v>0.9820229301413452</v>
+        <v>0.9605211036883287</v>
       </c>
       <c r="E21">
-        <v>0.9654065843017526</v>
+        <v>0.9409618973841738</v>
       </c>
       <c r="F21">
-        <v>0.9772215439181087</v>
+        <v>0.8821414935836851</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027866061418943</v>
+        <v>1.019726877933782</v>
       </c>
       <c r="J21">
-        <v>0.9838355614121254</v>
+        <v>0.9561896654785494</v>
       </c>
       <c r="K21">
-        <v>0.9973530796435826</v>
+        <v>0.9762911101777706</v>
       </c>
       <c r="L21">
-        <v>0.9810743771303303</v>
+        <v>0.9571552793372404</v>
       </c>
       <c r="M21">
-        <v>0.9926477047182308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8997620067510773</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9441847666643466</v>
+        <v>0.9147280279107902</v>
       </c>
       <c r="D22">
-        <v>0.9757655991796582</v>
+        <v>0.9546243638849593</v>
       </c>
       <c r="E22">
-        <v>0.9587378930508046</v>
+        <v>0.9340771069231675</v>
       </c>
       <c r="F22">
-        <v>0.9701012277905435</v>
+        <v>0.8705082779796942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025491406961734</v>
+        <v>1.017554687626799</v>
       </c>
       <c r="J22">
-        <v>0.9775864268072815</v>
+        <v>0.9497274018514584</v>
       </c>
       <c r="K22">
-        <v>0.9918329321408765</v>
+        <v>0.9711516946889316</v>
       </c>
       <c r="L22">
-        <v>0.9751736048280973</v>
+        <v>0.9510782921287797</v>
       </c>
       <c r="M22">
-        <v>0.9862892010261363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8891701182415126</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9484695575439417</v>
+        <v>0.9192070187556268</v>
       </c>
       <c r="D23">
-        <v>0.9791120316633347</v>
+        <v>0.9577839195740235</v>
       </c>
       <c r="E23">
-        <v>0.9623041467352206</v>
+        <v>0.9377662953252481</v>
       </c>
       <c r="F23">
-        <v>0.9739089535797669</v>
+        <v>0.876754500687945</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026762889325728</v>
+        <v>1.018720336682166</v>
       </c>
       <c r="J23">
-        <v>0.9809296004247162</v>
+        <v>0.9531924688885943</v>
       </c>
       <c r="K23">
-        <v>0.9947862516082351</v>
+        <v>0.9739073114042592</v>
       </c>
       <c r="L23">
-        <v>0.978330137832663</v>
+        <v>0.9543361075475442</v>
       </c>
       <c r="M23">
-        <v>0.9896903546106447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8948568430519629</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9645171111346428</v>
+        <v>0.9358055546832784</v>
       </c>
       <c r="D24">
-        <v>0.9916707344021859</v>
+        <v>0.9695260088277928</v>
       </c>
       <c r="E24">
-        <v>0.9756920546190916</v>
+        <v>0.9514733870961106</v>
       </c>
       <c r="F24">
-        <v>0.9882042861592651</v>
+        <v>0.8997187576862484</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031501961558836</v>
+        <v>1.023014996650746</v>
       </c>
       <c r="J24">
-        <v>0.9934529446002923</v>
+        <v>0.9660201109701898</v>
       </c>
       <c r="K24">
-        <v>1.005845717398387</v>
+        <v>0.9841102853778263</v>
       </c>
       <c r="L24">
-        <v>0.9901599296345645</v>
+        <v>0.9664098700274178</v>
       </c>
       <c r="M24">
-        <v>1.002441763464965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9157698936188454</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9817008085006488</v>
+        <v>0.9533184412815043</v>
       </c>
       <c r="D25">
-        <v>1.005157151126748</v>
+        <v>0.9819646185840322</v>
       </c>
       <c r="E25">
-        <v>0.9900801959585884</v>
+        <v>0.9659944086154071</v>
       </c>
       <c r="F25">
-        <v>1.00356920618138</v>
+        <v>0.9236844618217287</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036524202715482</v>
+        <v>1.027490041256281</v>
       </c>
       <c r="J25">
-        <v>1.006860106566844</v>
+        <v>0.9795258485867433</v>
       </c>
       <c r="K25">
-        <v>1.017675933028662</v>
+        <v>0.9948495151603191</v>
       </c>
       <c r="L25">
-        <v>1.002834481057387</v>
+        <v>0.9791445998866286</v>
       </c>
       <c r="M25">
-        <v>1.01611236634892</v>
+        <v>0.9375955165350296</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9661727331976341</v>
+        <v>1.024525819036797</v>
       </c>
       <c r="D2">
-        <v>0.991120707439871</v>
+        <v>1.027687710516158</v>
       </c>
       <c r="E2">
-        <v>0.9766899215397828</v>
+        <v>1.024933552443948</v>
       </c>
       <c r="F2">
-        <v>0.9411386355956612</v>
+        <v>1.023009657280859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030725202949807</v>
+        <v>1.028540493957157</v>
       </c>
       <c r="J2">
-        <v>0.9894145323126502</v>
+        <v>1.029699942307616</v>
       </c>
       <c r="K2">
-        <v>1.002705146839969</v>
+        <v>1.03050671189918</v>
       </c>
       <c r="L2">
-        <v>0.9884838470956621</v>
+        <v>1.027760601293353</v>
       </c>
       <c r="M2">
-        <v>0.9534838355527125</v>
+        <v>1.025842355591445</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9749708632156578</v>
+        <v>1.026161437136498</v>
       </c>
       <c r="D3">
-        <v>0.9973975292070195</v>
+        <v>1.028856640750343</v>
       </c>
       <c r="E3">
-        <v>0.9840281976470401</v>
+        <v>1.026344343702474</v>
       </c>
       <c r="F3">
-        <v>0.9530321131303189</v>
+        <v>1.025292674300836</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032908961772863</v>
+        <v>1.028848906323447</v>
       </c>
       <c r="J3">
-        <v>0.9961679094754833</v>
+        <v>1.030970959808858</v>
       </c>
       <c r="K3">
-        <v>1.008063817792775</v>
+        <v>1.031482444217269</v>
       </c>
       <c r="L3">
-        <v>0.994869603752596</v>
+        <v>1.028976949128002</v>
       </c>
       <c r="M3">
-        <v>0.9643034524724017</v>
+        <v>1.027928137798961</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9804455940301073</v>
+        <v>1.027216559348742</v>
       </c>
       <c r="D4">
-        <v>1.001306490242138</v>
+        <v>1.029610172946366</v>
       </c>
       <c r="E4">
-        <v>0.9886016822356039</v>
+        <v>1.027254609729758</v>
       </c>
       <c r="F4">
-        <v>0.9604149386377151</v>
+        <v>1.026766015625233</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034253117228625</v>
+        <v>1.02904592541324</v>
       </c>
       <c r="J4">
-        <v>1.000363084270066</v>
+        <v>1.03178989909272</v>
       </c>
       <c r="K4">
-        <v>1.011389172612277</v>
+        <v>1.032110404993197</v>
       </c>
       <c r="L4">
-        <v>0.9988396498720992</v>
+        <v>1.029760893682251</v>
       </c>
       <c r="M4">
-        <v>0.9710158263635746</v>
+        <v>1.029273558623409</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9826987172683892</v>
+        <v>1.027659374512954</v>
       </c>
       <c r="D5">
-        <v>1.002915782565161</v>
+        <v>1.029926286923337</v>
       </c>
       <c r="E5">
-        <v>0.9904854817864414</v>
+        <v>1.027636672956733</v>
       </c>
       <c r="F5">
-        <v>0.9634498300631544</v>
+        <v>1.027384496626049</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034802689149132</v>
+        <v>1.029128146644078</v>
       </c>
       <c r="J5">
-        <v>1.002087840165738</v>
+        <v>1.03213335714089</v>
       </c>
       <c r="K5">
-        <v>1.012755423311369</v>
+        <v>1.032373594298924</v>
       </c>
       <c r="L5">
-        <v>1.000472590087199</v>
+        <v>1.03008972997923</v>
       </c>
       <c r="M5">
-        <v>0.9737741000243814</v>
+        <v>1.029838188597965</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9830742873511236</v>
+        <v>1.027733681114168</v>
       </c>
       <c r="D6">
-        <v>1.003184061049035</v>
+        <v>1.029979324790005</v>
       </c>
       <c r="E6">
-        <v>0.9907995792969652</v>
+        <v>1.027700787484404</v>
       </c>
       <c r="F6">
-        <v>0.9639555273799049</v>
+        <v>1.02748828964073</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034894081489486</v>
+        <v>1.029141916539691</v>
       </c>
       <c r="J6">
-        <v>1.002375232250951</v>
+        <v>1.032190977296248</v>
       </c>
       <c r="K6">
-        <v>1.012983023660314</v>
+        <v>1.032417737981618</v>
       </c>
       <c r="L6">
-        <v>1.000744725806023</v>
+        <v>1.030144900329333</v>
       </c>
       <c r="M6">
-        <v>0.9742336432622662</v>
+        <v>1.02993293542691</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9804758860765534</v>
+        <v>1.027222479224694</v>
       </c>
       <c r="D7">
-        <v>1.001328124342152</v>
+        <v>1.02961439949967</v>
       </c>
       <c r="E7">
-        <v>0.9886270028106485</v>
+        <v>1.027259717267628</v>
       </c>
       <c r="F7">
-        <v>0.9604557540486834</v>
+        <v>1.026774283343722</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034260520372688</v>
+        <v>1.02904702643206</v>
       </c>
       <c r="J7">
-        <v>1.000386279757733</v>
+        <v>1.031794491616827</v>
       </c>
       <c r="K7">
-        <v>1.011407550373444</v>
+        <v>1.032113924893461</v>
       </c>
       <c r="L7">
-        <v>0.9988616076744969</v>
+        <v>1.029765290477369</v>
       </c>
       <c r="M7">
-        <v>0.9710529257404188</v>
+        <v>1.029281107072734</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9691937255868062</v>
+        <v>1.025079262460586</v>
       </c>
       <c r="D8">
-        <v>0.9932751721674707</v>
+        <v>1.02808335076466</v>
       </c>
       <c r="E8">
-        <v>0.979208038317581</v>
+        <v>1.025410883861994</v>
       </c>
       <c r="F8">
-        <v>0.9452268397367083</v>
+        <v>1.023782042605536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031478104875829</v>
+        <v>1.028645252316325</v>
       </c>
       <c r="J8">
-        <v>0.9917349225612312</v>
+        <v>1.030130219620264</v>
       </c>
       <c r="K8">
-        <v>1.004547012704242</v>
+        <v>1.030837175534647</v>
       </c>
       <c r="L8">
-        <v>0.9906772153757116</v>
+        <v>1.028172323415551</v>
       </c>
       <c r="M8">
-        <v>0.957203678810451</v>
+        <v>1.026548144470262</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9474425539237432</v>
+        <v>1.021277184534424</v>
       </c>
       <c r="D9">
-        <v>0.9777861795691771</v>
+        <v>1.025363220781516</v>
       </c>
       <c r="E9">
-        <v>0.961115743775977</v>
+        <v>1.022132456322145</v>
       </c>
       <c r="F9">
-        <v>0.9156698248132153</v>
+        <v>1.018478039050548</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025996266576896</v>
+        <v>1.0279176286784</v>
       </c>
       <c r="J9">
-        <v>0.974998248990457</v>
+        <v>1.027170236782255</v>
       </c>
       <c r="K9">
-        <v>0.9912502444743345</v>
+        <v>1.028560892051068</v>
       </c>
       <c r="L9">
-        <v>0.9748728531769612</v>
+        <v>1.02534094549041</v>
       </c>
       <c r="M9">
-        <v>0.9302972911234478</v>
+        <v>1.021698855559106</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9313478608483957</v>
+        <v>1.018724362017634</v>
       </c>
       <c r="D10">
-        <v>0.9663676852083576</v>
+        <v>1.023534227281019</v>
       </c>
       <c r="E10">
-        <v>0.9477868004952877</v>
+        <v>1.019932240805937</v>
       </c>
       <c r="F10">
-        <v>0.8935778321656858</v>
+        <v>1.01491924672758</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02186598753073</v>
+        <v>1.027419111115213</v>
       </c>
       <c r="J10">
-        <v>0.9625773972495963</v>
+        <v>1.025177751421224</v>
       </c>
       <c r="K10">
-        <v>0.9813719452952716</v>
+        <v>1.027024963942713</v>
       </c>
       <c r="L10">
-        <v>0.9631674253183313</v>
+        <v>1.023436247308853</v>
       </c>
       <c r="M10">
-        <v>0.9101769501094862</v>
+        <v>1.018441894768158</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9239027338698909</v>
+        <v>1.017614445821065</v>
       </c>
       <c r="D11">
-        <v>0.9611005919432408</v>
+        <v>1.022738417258138</v>
       </c>
       <c r="E11">
-        <v>0.9416383969432128</v>
+        <v>1.018975885074752</v>
       </c>
       <c r="F11">
-        <v>0.8832791970505482</v>
+        <v>1.013372452707878</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019939568367107</v>
+        <v>1.027200009760929</v>
       </c>
       <c r="J11">
-        <v>0.9568236517300661</v>
+        <v>1.024310259714223</v>
       </c>
       <c r="K11">
-        <v>0.9767953689504352</v>
+        <v>1.026355390141623</v>
       </c>
       <c r="L11">
-        <v>0.957751755856101</v>
+        <v>1.022607268868115</v>
       </c>
       <c r="M11">
-        <v>0.9007980200008219</v>
+        <v>1.017025518474922</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9210550988578736</v>
+        <v>1.017201474107578</v>
       </c>
       <c r="D12">
-        <v>0.9590887453878566</v>
+        <v>1.022442228136365</v>
       </c>
       <c r="E12">
-        <v>0.9392896925089881</v>
+        <v>1.018620088630881</v>
       </c>
       <c r="F12">
-        <v>0.8793252313972686</v>
+        <v>1.012796997185136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019200547483807</v>
+        <v>1.027118134505714</v>
       </c>
       <c r="J12">
-        <v>0.954621779229799</v>
+        <v>1.023987308178796</v>
       </c>
       <c r="K12">
-        <v>0.9750440787712495</v>
+        <v>1.026105991807054</v>
       </c>
       <c r="L12">
-        <v>0.9556803775589413</v>
+        <v>1.022298699342182</v>
       </c>
       <c r="M12">
-        <v>0.8971975677217692</v>
+        <v>1.016498467029757</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9216698433486473</v>
+        <v>1.017290089904134</v>
       </c>
       <c r="D13">
-        <v>0.9595229291614338</v>
+        <v>1.022505788600579</v>
       </c>
       <c r="E13">
-        <v>0.9397965889551647</v>
+        <v>1.018696433916071</v>
       </c>
       <c r="F13">
-        <v>0.8801795379060676</v>
+        <v>1.012920475957933</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019360182437889</v>
+        <v>1.027135719329091</v>
       </c>
       <c r="J13">
-        <v>0.9550971688046914</v>
+        <v>1.024056615505821</v>
       </c>
       <c r="K13">
-        <v>0.9754221787072421</v>
+        <v>1.026159519956526</v>
       </c>
       <c r="L13">
-        <v>0.9561275406444365</v>
+        <v>1.022364918199222</v>
       </c>
       <c r="M13">
-        <v>0.8979754684486195</v>
+        <v>1.016611564677435</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9236690944228717</v>
+        <v>1.017580323830693</v>
       </c>
       <c r="D14">
-        <v>0.960935468103908</v>
+        <v>1.022713946277783</v>
       </c>
       <c r="E14">
-        <v>0.9414456312290632</v>
+        <v>1.018946486410964</v>
       </c>
       <c r="F14">
-        <v>0.8829551079828885</v>
+        <v>1.013324904082716</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019878977338204</v>
+        <v>1.0271932519745</v>
       </c>
       <c r="J14">
-        <v>0.9566430182710219</v>
+        <v>1.024283579350206</v>
       </c>
       <c r="K14">
-        <v>0.9766516964078631</v>
+        <v>1.026334788917443</v>
       </c>
       <c r="L14">
-        <v>0.9575818043275554</v>
+        <v>1.022581775758439</v>
       </c>
       <c r="M14">
-        <v>0.9005028964377824</v>
+        <v>1.016981971722612</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9248896484748483</v>
+        <v>1.017759053271298</v>
       </c>
       <c r="D15">
-        <v>0.9617982037436384</v>
+        <v>1.022842120559513</v>
       </c>
       <c r="E15">
-        <v>0.9424527789496949</v>
+        <v>1.019100476896283</v>
       </c>
       <c r="F15">
-        <v>0.8846475560600195</v>
+        <v>1.013573964341206</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020195422655813</v>
+        <v>1.027228634504375</v>
       </c>
       <c r="J15">
-        <v>0.9575866174040584</v>
+        <v>1.024423322530948</v>
       </c>
       <c r="K15">
-        <v>0.9774022230204725</v>
+        <v>1.026442686281114</v>
       </c>
       <c r="L15">
-        <v>0.958469648790879</v>
+        <v>1.022715302292909</v>
       </c>
       <c r="M15">
-        <v>0.9020441004274501</v>
+        <v>1.017210065404292</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9318310828469618</v>
+        <v>1.018797926479437</v>
       </c>
       <c r="D16">
-        <v>0.9667098874417434</v>
+        <v>1.023586960536372</v>
       </c>
       <c r="E16">
-        <v>0.9481862426296639</v>
+        <v>1.019995632829095</v>
       </c>
       <c r="F16">
-        <v>0.8942444018323166</v>
+        <v>1.015021776983073</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021990710752437</v>
+        <v>1.027433583506643</v>
       </c>
       <c r="J16">
-        <v>0.9629506798904098</v>
+        <v>1.025235222964499</v>
       </c>
       <c r="K16">
-        <v>0.9816688596859179</v>
+        <v>1.027069305401476</v>
       </c>
       <c r="L16">
-        <v>0.9635189204614413</v>
+        <v>1.023491173509505</v>
       </c>
       <c r="M16">
-        <v>0.9107840295459543</v>
+        <v>1.018535764023185</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9360509964778132</v>
+        <v>1.019448358622434</v>
       </c>
       <c r="D17">
-        <v>0.969700005045126</v>
+        <v>1.024053141217993</v>
       </c>
       <c r="E17">
-        <v>0.9516764856460654</v>
+        <v>1.020556153124788</v>
       </c>
       <c r="F17">
-        <v>0.9000563584933012</v>
+        <v>1.015928371361886</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023078157148547</v>
+        <v>1.027561272023931</v>
       </c>
       <c r="J17">
-        <v>0.9662096145672814</v>
+        <v>1.025743228784279</v>
       </c>
       <c r="K17">
-        <v>0.9842610126798641</v>
+        <v>1.027461152205052</v>
       </c>
       <c r="L17">
-        <v>0.9665883936933956</v>
+        <v>1.023976714099404</v>
       </c>
       <c r="M17">
-        <v>0.9160773724032724</v>
+        <v>1.019365687213086</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9384673021917274</v>
+        <v>1.019827309191882</v>
       </c>
       <c r="D18">
-        <v>0.9714134812071075</v>
+        <v>1.024324686499199</v>
       </c>
       <c r="E18">
-        <v>0.9536765665448516</v>
+        <v>1.020882744204919</v>
       </c>
       <c r="F18">
-        <v>0.9033771399297738</v>
+        <v>1.016456613926625</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02369934560559</v>
+        <v>1.027635438273585</v>
       </c>
       <c r="J18">
-        <v>0.96807491623645</v>
+        <v>1.026039084434718</v>
       </c>
       <c r="K18">
-        <v>0.9857446000258169</v>
+        <v>1.027689275776093</v>
       </c>
       <c r="L18">
-        <v>0.9683458632329465</v>
+        <v>1.02425951440155</v>
       </c>
       <c r="M18">
-        <v>0.9191018626255573</v>
+        <v>1.019849181822854</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9392838373024757</v>
+        <v>1.019956448254305</v>
       </c>
       <c r="D19">
-        <v>0.9719927266660472</v>
+        <v>1.024417214031584</v>
       </c>
       <c r="E19">
-        <v>0.9543527069977786</v>
+        <v>1.020994044259679</v>
       </c>
       <c r="F19">
-        <v>0.9044981896503342</v>
+        <v>1.016636637262416</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02390900627163</v>
+        <v>1.027660674210939</v>
       </c>
       <c r="J19">
-        <v>0.9687051231498877</v>
+        <v>1.026139886762494</v>
       </c>
       <c r="K19">
-        <v>0.9862458245850267</v>
+        <v>1.027766986749718</v>
       </c>
       <c r="L19">
-        <v>0.9689397385446294</v>
+        <v>1.024355873338586</v>
       </c>
       <c r="M19">
-        <v>0.9201228854213199</v>
+        <v>1.020013942607701</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9356029740445709</v>
+        <v>1.019378618593231</v>
       </c>
       <c r="D20">
-        <v>0.9693824049172071</v>
+        <v>1.024003162805108</v>
       </c>
       <c r="E20">
-        <v>0.951305764305762</v>
+        <v>1.020496051009811</v>
       </c>
       <c r="F20">
-        <v>0.8994400715351151</v>
+        <v>1.015831160387785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022962857350667</v>
+        <v>1.027547604589697</v>
       </c>
       <c r="J20">
-        <v>0.9658636958419365</v>
+        <v>1.02568877179887</v>
       </c>
       <c r="K20">
-        <v>0.9839858755385437</v>
+        <v>1.027419155730671</v>
       </c>
       <c r="L20">
-        <v>0.9662625211161395</v>
+        <v>1.023924662422042</v>
       </c>
       <c r="M20">
-        <v>0.9155160730280797</v>
+        <v>1.01927670509919</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9230827314117613</v>
+        <v>1.017494876636564</v>
       </c>
       <c r="D21">
-        <v>0.9605211036883287</v>
+        <v>1.022652665412852</v>
       </c>
       <c r="E21">
-        <v>0.9409618973841738</v>
+        <v>1.018872867858495</v>
       </c>
       <c r="F21">
-        <v>0.8821414935836851</v>
+        <v>1.013205835402476</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019726877933782</v>
+        <v>1.027176323641874</v>
       </c>
       <c r="J21">
-        <v>0.9561896654785494</v>
+        <v>1.02421676433522</v>
       </c>
       <c r="K21">
-        <v>0.9762911101777706</v>
+        <v>1.026283195686443</v>
       </c>
       <c r="L21">
-        <v>0.9571552793372404</v>
+        <v>1.022517934671761</v>
       </c>
       <c r="M21">
-        <v>0.8997620067510773</v>
+        <v>1.016872922452826</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9147280279107902</v>
+        <v>1.016306436949061</v>
       </c>
       <c r="D22">
-        <v>0.9546243638849593</v>
+        <v>1.021800135179709</v>
       </c>
       <c r="E22">
-        <v>0.9340771069231675</v>
+        <v>1.01784904112612</v>
       </c>
       <c r="F22">
-        <v>0.8705082779796942</v>
+        <v>1.011549922551789</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017554687626799</v>
+        <v>1.026940040039956</v>
       </c>
       <c r="J22">
-        <v>0.9497274018514584</v>
+        <v>1.023287043731903</v>
       </c>
       <c r="K22">
-        <v>0.9711516946889316</v>
+        <v>1.02556498133815</v>
       </c>
       <c r="L22">
-        <v>0.9510782921287797</v>
+        <v>1.021629701051387</v>
       </c>
       <c r="M22">
-        <v>0.8891701182415126</v>
+        <v>1.015356078569646</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9192070187556268</v>
+        <v>1.016936842306824</v>
       </c>
       <c r="D23">
-        <v>0.9577839195740235</v>
+        <v>1.02225240583533</v>
       </c>
       <c r="E23">
-        <v>0.9377662953252481</v>
+        <v>1.018392105887928</v>
       </c>
       <c r="F23">
-        <v>0.876754500687945</v>
+        <v>1.012428263980413</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018720336682166</v>
+        <v>1.027065569593559</v>
       </c>
       <c r="J23">
-        <v>0.9531924688885943</v>
+        <v>1.023780310609135</v>
       </c>
       <c r="K23">
-        <v>0.9739073114042592</v>
+        <v>1.025946102627334</v>
       </c>
       <c r="L23">
-        <v>0.9543361075475442</v>
+        <v>1.022100932486619</v>
       </c>
       <c r="M23">
-        <v>0.8948568430519629</v>
+        <v>1.016160717149333</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9358055546832784</v>
+        <v>1.019410132455771</v>
       </c>
       <c r="D24">
-        <v>0.9695260088277928</v>
+        <v>1.024025747041799</v>
       </c>
       <c r="E24">
-        <v>0.9514733870961106</v>
+        <v>1.020523209652602</v>
       </c>
       <c r="F24">
-        <v>0.8997187576862484</v>
+        <v>1.015875087567518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023014996650746</v>
+        <v>1.027553781279861</v>
       </c>
       <c r="J24">
-        <v>0.9660201109701898</v>
+        <v>1.025713379973826</v>
       </c>
       <c r="K24">
-        <v>0.9841102853778263</v>
+        <v>1.027438133470701</v>
       </c>
       <c r="L24">
-        <v>0.9664098700274178</v>
+        <v>1.023948183592812</v>
       </c>
       <c r="M24">
-        <v>0.9157698936188454</v>
+        <v>1.019316914094581</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9533184412815043</v>
+        <v>1.022263230495427</v>
       </c>
       <c r="D25">
-        <v>0.9819646185840322</v>
+        <v>1.026069137816638</v>
       </c>
       <c r="E25">
-        <v>0.9659944086154071</v>
+        <v>1.022982523262792</v>
       </c>
       <c r="F25">
-        <v>0.9236844618217287</v>
+        <v>1.019853138259466</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027490041256281</v>
+        <v>1.028108088081285</v>
       </c>
       <c r="J25">
-        <v>0.9795258485867433</v>
+        <v>1.027938782195218</v>
       </c>
       <c r="K25">
-        <v>0.9948495151603191</v>
+        <v>1.029152565777022</v>
       </c>
       <c r="L25">
-        <v>0.9791445998866286</v>
+        <v>1.026075886678193</v>
       </c>
       <c r="M25">
-        <v>0.9375955165350296</v>
+        <v>1.02295664205883</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024525819036797</v>
+        <v>0.9661727331976347</v>
       </c>
       <c r="D2">
-        <v>1.027687710516158</v>
+        <v>0.9911207074398717</v>
       </c>
       <c r="E2">
-        <v>1.024933552443948</v>
+        <v>0.9766899215397831</v>
       </c>
       <c r="F2">
-        <v>1.023009657280859</v>
+        <v>0.9411386355956626</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028540493957157</v>
+        <v>1.030725202949807</v>
       </c>
       <c r="J2">
-        <v>1.029699942307616</v>
+        <v>0.9894145323126508</v>
       </c>
       <c r="K2">
-        <v>1.03050671189918</v>
+        <v>1.00270514683997</v>
       </c>
       <c r="L2">
-        <v>1.027760601293353</v>
+        <v>0.9884838470956622</v>
       </c>
       <c r="M2">
-        <v>1.025842355591445</v>
+        <v>0.9534838355527139</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026161437136498</v>
+        <v>0.974970863215658</v>
       </c>
       <c r="D3">
-        <v>1.028856640750343</v>
+        <v>0.9973975292070197</v>
       </c>
       <c r="E3">
-        <v>1.026344343702474</v>
+        <v>0.9840281976470399</v>
       </c>
       <c r="F3">
-        <v>1.025292674300836</v>
+        <v>0.9530321131303183</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028848906323447</v>
+        <v>1.032908961772863</v>
       </c>
       <c r="J3">
-        <v>1.030970959808858</v>
+        <v>0.9961679094754834</v>
       </c>
       <c r="K3">
-        <v>1.031482444217269</v>
+        <v>1.008063817792775</v>
       </c>
       <c r="L3">
-        <v>1.028976949128002</v>
+        <v>0.994869603752596</v>
       </c>
       <c r="M3">
-        <v>1.027928137798961</v>
+        <v>0.9643034524724013</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027216559348742</v>
+        <v>0.9804455940301063</v>
       </c>
       <c r="D4">
-        <v>1.029610172946366</v>
+        <v>1.001306490242137</v>
       </c>
       <c r="E4">
-        <v>1.027254609729758</v>
+        <v>0.9886016822356026</v>
       </c>
       <c r="F4">
-        <v>1.026766015625233</v>
+        <v>0.9604149386377134</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02904592541324</v>
+        <v>1.034253117228625</v>
       </c>
       <c r="J4">
-        <v>1.03178989909272</v>
+        <v>1.000363084270065</v>
       </c>
       <c r="K4">
-        <v>1.032110404993197</v>
+        <v>1.011389172612276</v>
       </c>
       <c r="L4">
-        <v>1.029760893682251</v>
+        <v>0.9988396498720978</v>
       </c>
       <c r="M4">
-        <v>1.029273558623409</v>
+        <v>0.9710158263635729</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027659374512954</v>
+        <v>0.9826987172683895</v>
       </c>
       <c r="D5">
-        <v>1.029926286923337</v>
+        <v>1.002915782565161</v>
       </c>
       <c r="E5">
-        <v>1.027636672956733</v>
+        <v>0.990485481786441</v>
       </c>
       <c r="F5">
-        <v>1.027384496626049</v>
+        <v>0.9634498300631549</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029128146644078</v>
+        <v>1.034802689149132</v>
       </c>
       <c r="J5">
-        <v>1.03213335714089</v>
+        <v>1.002087840165738</v>
       </c>
       <c r="K5">
-        <v>1.032373594298924</v>
+        <v>1.012755423311369</v>
       </c>
       <c r="L5">
-        <v>1.03008972997923</v>
+        <v>1.000472590087199</v>
       </c>
       <c r="M5">
-        <v>1.029838188597965</v>
+        <v>0.9737741000243818</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027733681114168</v>
+        <v>0.9830742873511246</v>
       </c>
       <c r="D6">
-        <v>1.029979324790005</v>
+        <v>1.003184061049036</v>
       </c>
       <c r="E6">
-        <v>1.027700787484404</v>
+        <v>0.9907995792969663</v>
       </c>
       <c r="F6">
-        <v>1.02748828964073</v>
+        <v>0.9639555273799062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029141916539691</v>
+        <v>1.034894081489486</v>
       </c>
       <c r="J6">
-        <v>1.032190977296248</v>
+        <v>1.002375232250952</v>
       </c>
       <c r="K6">
-        <v>1.032417737981618</v>
+        <v>1.012983023660315</v>
       </c>
       <c r="L6">
-        <v>1.030144900329333</v>
+        <v>1.000744725806024</v>
       </c>
       <c r="M6">
-        <v>1.02993293542691</v>
+        <v>0.9742336432622674</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027222479224694</v>
+        <v>0.9804758860765534</v>
       </c>
       <c r="D7">
-        <v>1.02961439949967</v>
+        <v>1.001328124342153</v>
       </c>
       <c r="E7">
-        <v>1.027259717267628</v>
+        <v>0.9886270028106481</v>
       </c>
       <c r="F7">
-        <v>1.026774283343722</v>
+        <v>0.9604557540486831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02904702643206</v>
+        <v>1.034260520372689</v>
       </c>
       <c r="J7">
-        <v>1.031794491616827</v>
+        <v>1.000386279757733</v>
       </c>
       <c r="K7">
-        <v>1.032113924893461</v>
+        <v>1.011407550373444</v>
       </c>
       <c r="L7">
-        <v>1.029765290477369</v>
+        <v>0.9988616076744967</v>
       </c>
       <c r="M7">
-        <v>1.029281107072734</v>
+        <v>0.9710529257404186</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025079262460586</v>
+        <v>0.9691937255868071</v>
       </c>
       <c r="D8">
-        <v>1.02808335076466</v>
+        <v>0.9932751721674714</v>
       </c>
       <c r="E8">
-        <v>1.025410883861994</v>
+        <v>0.979208038317582</v>
       </c>
       <c r="F8">
-        <v>1.023782042605536</v>
+        <v>0.9452268397367091</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028645252316325</v>
+        <v>1.031478104875829</v>
       </c>
       <c r="J8">
-        <v>1.030130219620264</v>
+        <v>0.991734922561232</v>
       </c>
       <c r="K8">
-        <v>1.030837175534647</v>
+        <v>1.004547012704243</v>
       </c>
       <c r="L8">
-        <v>1.028172323415551</v>
+        <v>0.9906772153757125</v>
       </c>
       <c r="M8">
-        <v>1.026548144470262</v>
+        <v>0.957203678810452</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021277184534424</v>
+        <v>0.9474425539237431</v>
       </c>
       <c r="D9">
-        <v>1.025363220781516</v>
+        <v>0.9777861795691771</v>
       </c>
       <c r="E9">
-        <v>1.022132456322145</v>
+        <v>0.9611157437759767</v>
       </c>
       <c r="F9">
-        <v>1.018478039050548</v>
+        <v>0.915669824813215</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0279176286784</v>
+        <v>1.025996266576896</v>
       </c>
       <c r="J9">
-        <v>1.027170236782255</v>
+        <v>0.9749982489904568</v>
       </c>
       <c r="K9">
-        <v>1.028560892051068</v>
+        <v>0.9912502444743344</v>
       </c>
       <c r="L9">
-        <v>1.02534094549041</v>
+        <v>0.9748728531769609</v>
       </c>
       <c r="M9">
-        <v>1.021698855559106</v>
+        <v>0.9302972911234478</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018724362017634</v>
+        <v>0.9313478608483944</v>
       </c>
       <c r="D10">
-        <v>1.023534227281019</v>
+        <v>0.9663676852083564</v>
       </c>
       <c r="E10">
-        <v>1.019932240805937</v>
+        <v>0.9477868004952871</v>
       </c>
       <c r="F10">
-        <v>1.01491924672758</v>
+        <v>0.8935778321656846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027419111115213</v>
+        <v>1.02186598753073</v>
       </c>
       <c r="J10">
-        <v>1.025177751421224</v>
+        <v>0.9625773972495952</v>
       </c>
       <c r="K10">
-        <v>1.027024963942713</v>
+        <v>0.9813719452952704</v>
       </c>
       <c r="L10">
-        <v>1.023436247308853</v>
+        <v>0.9631674253183304</v>
       </c>
       <c r="M10">
-        <v>1.018441894768158</v>
+        <v>0.9101769501094853</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017614445821065</v>
+        <v>0.9239027338698923</v>
       </c>
       <c r="D11">
-        <v>1.022738417258138</v>
+        <v>0.9611005919432422</v>
       </c>
       <c r="E11">
-        <v>1.018975885074752</v>
+        <v>0.9416383969432143</v>
       </c>
       <c r="F11">
-        <v>1.013372452707878</v>
+        <v>0.8832791970505499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027200009760929</v>
+        <v>1.019939568367108</v>
       </c>
       <c r="J11">
-        <v>1.024310259714223</v>
+        <v>0.9568236517300676</v>
       </c>
       <c r="K11">
-        <v>1.026355390141623</v>
+        <v>0.9767953689504364</v>
       </c>
       <c r="L11">
-        <v>1.022607268868115</v>
+        <v>0.9577517558561023</v>
       </c>
       <c r="M11">
-        <v>1.017025518474922</v>
+        <v>0.9007980200008237</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017201474107578</v>
+        <v>0.9210550988578724</v>
       </c>
       <c r="D12">
-        <v>1.022442228136365</v>
+        <v>0.9590887453878556</v>
       </c>
       <c r="E12">
-        <v>1.018620088630881</v>
+        <v>0.9392896925089872</v>
       </c>
       <c r="F12">
-        <v>1.012796997185136</v>
+        <v>0.879325231397267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027118134505714</v>
+        <v>1.019200547483807</v>
       </c>
       <c r="J12">
-        <v>1.023987308178796</v>
+        <v>0.9546217792297983</v>
       </c>
       <c r="K12">
-        <v>1.026105991807054</v>
+        <v>0.9750440787712487</v>
       </c>
       <c r="L12">
-        <v>1.022298699342182</v>
+        <v>0.9556803775589404</v>
       </c>
       <c r="M12">
-        <v>1.016498467029757</v>
+        <v>0.8971975677217676</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017290089904134</v>
+        <v>0.9216698433486481</v>
       </c>
       <c r="D13">
-        <v>1.022505788600579</v>
+        <v>0.9595229291614342</v>
       </c>
       <c r="E13">
-        <v>1.018696433916071</v>
+        <v>0.9397965889551657</v>
       </c>
       <c r="F13">
-        <v>1.012920475957933</v>
+        <v>0.8801795379060686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027135719329091</v>
+        <v>1.01936018243789</v>
       </c>
       <c r="J13">
-        <v>1.024056615505821</v>
+        <v>0.9550971688046921</v>
       </c>
       <c r="K13">
-        <v>1.026159519956526</v>
+        <v>0.9754221787072429</v>
       </c>
       <c r="L13">
-        <v>1.022364918199222</v>
+        <v>0.9561275406444376</v>
       </c>
       <c r="M13">
-        <v>1.016611564677435</v>
+        <v>0.8979754684486205</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017580323830693</v>
+        <v>0.9236690944228695</v>
       </c>
       <c r="D14">
-        <v>1.022713946277783</v>
+        <v>0.9609354681039067</v>
       </c>
       <c r="E14">
-        <v>1.018946486410964</v>
+        <v>0.9414456312290617</v>
       </c>
       <c r="F14">
-        <v>1.013324904082716</v>
+        <v>0.8829551079828861</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0271932519745</v>
+        <v>1.019878977338204</v>
       </c>
       <c r="J14">
-        <v>1.024283579350206</v>
+        <v>0.9566430182710201</v>
       </c>
       <c r="K14">
-        <v>1.026334788917443</v>
+        <v>0.9766516964078618</v>
       </c>
       <c r="L14">
-        <v>1.022581775758439</v>
+        <v>0.9575818043275538</v>
       </c>
       <c r="M14">
-        <v>1.016981971722612</v>
+        <v>0.9005028964377801</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017759053271298</v>
+        <v>0.9248896484748464</v>
       </c>
       <c r="D15">
-        <v>1.022842120559513</v>
+        <v>0.9617982037436371</v>
       </c>
       <c r="E15">
-        <v>1.019100476896283</v>
+        <v>0.9424527789496934</v>
       </c>
       <c r="F15">
-        <v>1.013573964341206</v>
+        <v>0.8846475560600182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027228634504375</v>
+        <v>1.020195422655812</v>
       </c>
       <c r="J15">
-        <v>1.024423322530948</v>
+        <v>0.9575866174040567</v>
       </c>
       <c r="K15">
-        <v>1.026442686281114</v>
+        <v>0.9774022230204713</v>
       </c>
       <c r="L15">
-        <v>1.022715302292909</v>
+        <v>0.9584696487908774</v>
       </c>
       <c r="M15">
-        <v>1.017210065404292</v>
+        <v>0.9020441004274485</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018797926479437</v>
+        <v>0.9318310828469631</v>
       </c>
       <c r="D16">
-        <v>1.023586960536372</v>
+        <v>0.9667098874417445</v>
       </c>
       <c r="E16">
-        <v>1.019995632829095</v>
+        <v>0.948186242629665</v>
       </c>
       <c r="F16">
-        <v>1.015021776983073</v>
+        <v>0.894244401832318</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027433583506643</v>
+        <v>1.021990710752438</v>
       </c>
       <c r="J16">
-        <v>1.025235222964499</v>
+        <v>0.9629506798904112</v>
       </c>
       <c r="K16">
-        <v>1.027069305401476</v>
+        <v>0.9816688596859192</v>
       </c>
       <c r="L16">
-        <v>1.023491173509505</v>
+        <v>0.9635189204614421</v>
       </c>
       <c r="M16">
-        <v>1.018535764023185</v>
+        <v>0.9107840295459556</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019448358622434</v>
+        <v>0.9360509964778123</v>
       </c>
       <c r="D17">
-        <v>1.024053141217993</v>
+        <v>0.969700005045125</v>
       </c>
       <c r="E17">
-        <v>1.020556153124788</v>
+        <v>0.9516764856460643</v>
       </c>
       <c r="F17">
-        <v>1.015928371361886</v>
+        <v>0.9000563584933005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027561272023931</v>
+        <v>1.023078157148546</v>
       </c>
       <c r="J17">
-        <v>1.025743228784279</v>
+        <v>0.9662096145672805</v>
       </c>
       <c r="K17">
-        <v>1.027461152205052</v>
+        <v>0.9842610126798631</v>
       </c>
       <c r="L17">
-        <v>1.023976714099404</v>
+        <v>0.9665883936933943</v>
       </c>
       <c r="M17">
-        <v>1.019365687213086</v>
+        <v>0.9160773724032711</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019827309191882</v>
+        <v>0.9384673021917279</v>
       </c>
       <c r="D18">
-        <v>1.024324686499199</v>
+        <v>0.9714134812071082</v>
       </c>
       <c r="E18">
-        <v>1.020882744204919</v>
+        <v>0.9536765665448523</v>
       </c>
       <c r="F18">
-        <v>1.016456613926625</v>
+        <v>0.9033771399297751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027635438273585</v>
+        <v>1.023699345605591</v>
       </c>
       <c r="J18">
-        <v>1.026039084434718</v>
+        <v>0.9680749162364508</v>
       </c>
       <c r="K18">
-        <v>1.027689275776093</v>
+        <v>0.9857446000258175</v>
       </c>
       <c r="L18">
-        <v>1.02425951440155</v>
+        <v>0.9683458632329471</v>
       </c>
       <c r="M18">
-        <v>1.019849181822854</v>
+        <v>0.9191018626255586</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019956448254305</v>
+        <v>0.9392838373024741</v>
       </c>
       <c r="D19">
-        <v>1.024417214031584</v>
+        <v>0.971992726666046</v>
       </c>
       <c r="E19">
-        <v>1.020994044259679</v>
+        <v>0.9543527069977771</v>
       </c>
       <c r="F19">
-        <v>1.016636637262416</v>
+        <v>0.9044981896503324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027660674210939</v>
+        <v>1.02390900627163</v>
       </c>
       <c r="J19">
-        <v>1.026139886762494</v>
+        <v>0.9687051231498862</v>
       </c>
       <c r="K19">
-        <v>1.027766986749718</v>
+        <v>0.9862458245850256</v>
       </c>
       <c r="L19">
-        <v>1.024355873338586</v>
+        <v>0.9689397385446279</v>
       </c>
       <c r="M19">
-        <v>1.020013942607701</v>
+        <v>0.9201228854213181</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019378618593231</v>
+        <v>0.9356029740445713</v>
       </c>
       <c r="D20">
-        <v>1.024003162805108</v>
+        <v>0.9693824049172073</v>
       </c>
       <c r="E20">
-        <v>1.020496051009811</v>
+        <v>0.9513057643057621</v>
       </c>
       <c r="F20">
-        <v>1.015831160387785</v>
+        <v>0.8994400715351156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027547604589697</v>
+        <v>1.022962857350667</v>
       </c>
       <c r="J20">
-        <v>1.02568877179887</v>
+        <v>0.9658636958419369</v>
       </c>
       <c r="K20">
-        <v>1.027419155730671</v>
+        <v>0.983985875538544</v>
       </c>
       <c r="L20">
-        <v>1.023924662422042</v>
+        <v>0.9662625211161399</v>
       </c>
       <c r="M20">
-        <v>1.01927670509919</v>
+        <v>0.9155160730280801</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017494876636564</v>
+        <v>0.9230827314117618</v>
       </c>
       <c r="D21">
-        <v>1.022652665412852</v>
+        <v>0.960521103688329</v>
       </c>
       <c r="E21">
-        <v>1.018872867858495</v>
+        <v>0.940961897384174</v>
       </c>
       <c r="F21">
-        <v>1.013205835402476</v>
+        <v>0.8821414935836848</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027176323641874</v>
+        <v>1.019726877933782</v>
       </c>
       <c r="J21">
-        <v>1.02421676433522</v>
+        <v>0.9561896654785497</v>
       </c>
       <c r="K21">
-        <v>1.026283195686443</v>
+        <v>0.9762911101777709</v>
       </c>
       <c r="L21">
-        <v>1.022517934671761</v>
+        <v>0.9571552793372406</v>
       </c>
       <c r="M21">
-        <v>1.016872922452826</v>
+        <v>0.899762006751077</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016306436949061</v>
+        <v>0.9147280279107909</v>
       </c>
       <c r="D22">
-        <v>1.021800135179709</v>
+        <v>0.9546243638849597</v>
       </c>
       <c r="E22">
-        <v>1.01784904112612</v>
+        <v>0.9340771069231681</v>
       </c>
       <c r="F22">
-        <v>1.011549922551789</v>
+        <v>0.8705082779796951</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026940040039956</v>
+        <v>1.017554687626799</v>
       </c>
       <c r="J22">
-        <v>1.023287043731903</v>
+        <v>0.949727401851459</v>
       </c>
       <c r="K22">
-        <v>1.02556498133815</v>
+        <v>0.9711516946889321</v>
       </c>
       <c r="L22">
-        <v>1.021629701051387</v>
+        <v>0.9510782921287804</v>
       </c>
       <c r="M22">
-        <v>1.015356078569646</v>
+        <v>0.8891701182415136</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016936842306824</v>
+        <v>0.9192070187556253</v>
       </c>
       <c r="D23">
-        <v>1.02225240583533</v>
+        <v>0.9577839195740223</v>
       </c>
       <c r="E23">
-        <v>1.018392105887928</v>
+        <v>0.9377662953252467</v>
       </c>
       <c r="F23">
-        <v>1.012428263980413</v>
+        <v>0.876754500687943</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027065569593559</v>
+        <v>1.018720336682166</v>
       </c>
       <c r="J23">
-        <v>1.023780310609135</v>
+        <v>0.9531924688885931</v>
       </c>
       <c r="K23">
-        <v>1.025946102627334</v>
+        <v>0.973907311404258</v>
       </c>
       <c r="L23">
-        <v>1.022100932486619</v>
+        <v>0.9543361075475428</v>
       </c>
       <c r="M23">
-        <v>1.016160717149333</v>
+        <v>0.8948568430519611</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019410132455771</v>
+        <v>0.9358055546832766</v>
       </c>
       <c r="D24">
-        <v>1.024025747041799</v>
+        <v>0.9695260088277916</v>
       </c>
       <c r="E24">
-        <v>1.020523209652602</v>
+        <v>0.951473387096109</v>
       </c>
       <c r="F24">
-        <v>1.015875087567518</v>
+        <v>0.8997187576862465</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027553781279861</v>
+        <v>1.023014996650746</v>
       </c>
       <c r="J24">
-        <v>1.025713379973826</v>
+        <v>0.9660201109701881</v>
       </c>
       <c r="K24">
-        <v>1.027438133470701</v>
+        <v>0.9841102853778251</v>
       </c>
       <c r="L24">
-        <v>1.023948183592812</v>
+        <v>0.9664098700274163</v>
       </c>
       <c r="M24">
-        <v>1.019316914094581</v>
+        <v>0.9157698936188435</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022263230495427</v>
+        <v>0.9533184412815046</v>
       </c>
       <c r="D25">
-        <v>1.026069137816638</v>
+        <v>0.9819646185840324</v>
       </c>
       <c r="E25">
-        <v>1.022982523262792</v>
+        <v>0.9659944086154072</v>
       </c>
       <c r="F25">
-        <v>1.019853138259466</v>
+        <v>0.9236844618217289</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028108088081285</v>
+        <v>1.027490041256281</v>
       </c>
       <c r="J25">
-        <v>1.027938782195218</v>
+        <v>0.9795258485867435</v>
       </c>
       <c r="K25">
-        <v>1.029152565777022</v>
+        <v>0.9948495151603194</v>
       </c>
       <c r="L25">
-        <v>1.026075886678193</v>
+        <v>0.9791445998866286</v>
       </c>
       <c r="M25">
-        <v>1.02295664205883</v>
+        <v>0.9375955165350297</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9661727331976347</v>
+        <v>1.006239923674938</v>
       </c>
       <c r="D2">
-        <v>0.9911207074398717</v>
+        <v>1.026848529934859</v>
       </c>
       <c r="E2">
-        <v>0.9766899215397831</v>
+        <v>1.011284108505774</v>
       </c>
       <c r="F2">
-        <v>0.9411386355956626</v>
+        <v>1.031198321867595</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030725202949807</v>
+        <v>1.045347807873917</v>
       </c>
       <c r="J2">
-        <v>0.9894145323126508</v>
+        <v>1.028235588140466</v>
       </c>
       <c r="K2">
-        <v>1.00270514683997</v>
+        <v>1.037946076913631</v>
       </c>
       <c r="L2">
-        <v>0.9884838470956622</v>
+        <v>1.022588444721658</v>
       </c>
       <c r="M2">
-        <v>0.9534838355527139</v>
+        <v>1.042239473821484</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042002099215019</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037901431915602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.974970863215658</v>
+        <v>1.011757769481774</v>
       </c>
       <c r="D3">
-        <v>0.9973975292070197</v>
+        <v>1.030512383067315</v>
       </c>
       <c r="E3">
-        <v>0.9840281976470399</v>
+        <v>1.015827273354949</v>
       </c>
       <c r="F3">
-        <v>0.9530321131303183</v>
+        <v>1.034854776597502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032908961772863</v>
+        <v>1.046479470863857</v>
       </c>
       <c r="J3">
-        <v>0.9961679094754834</v>
+        <v>1.031932958158985</v>
       </c>
       <c r="K3">
-        <v>1.008063817792775</v>
+        <v>1.04076918798112</v>
       </c>
       <c r="L3">
-        <v>0.994869603752596</v>
+        <v>1.026261568601176</v>
       </c>
       <c r="M3">
-        <v>0.9643034524724013</v>
+        <v>1.04506029234034</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044234579873516</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039894958204415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9804455940301063</v>
+        <v>1.015247263555115</v>
       </c>
       <c r="D4">
-        <v>1.001306490242137</v>
+        <v>1.032832731080062</v>
       </c>
       <c r="E4">
-        <v>0.9886016822356026</v>
+        <v>1.018705746574734</v>
       </c>
       <c r="F4">
-        <v>0.9604149386377134</v>
+        <v>1.037175343929571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034253117228625</v>
+        <v>1.047183739778269</v>
       </c>
       <c r="J4">
-        <v>1.000363084270065</v>
+        <v>1.034268823994202</v>
       </c>
       <c r="K4">
-        <v>1.011389172612276</v>
+        <v>1.042550407227988</v>
       </c>
       <c r="L4">
-        <v>0.9988396498720978</v>
+        <v>1.028583532404555</v>
       </c>
       <c r="M4">
-        <v>0.9710158263635729</v>
+        <v>1.046844880101961</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045646952802707</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041155329489918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9826987172683895</v>
+        <v>1.016702643016639</v>
       </c>
       <c r="D5">
-        <v>1.002915782565161</v>
+        <v>1.033803649874817</v>
       </c>
       <c r="E5">
-        <v>0.990485481786441</v>
+        <v>1.019908537434286</v>
       </c>
       <c r="F5">
-        <v>0.9634498300631549</v>
+        <v>1.03814585257947</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034802689149132</v>
+        <v>1.047476996209309</v>
       </c>
       <c r="J5">
-        <v>1.002087840165738</v>
+        <v>1.035244574707048</v>
       </c>
       <c r="K5">
-        <v>1.012755423311369</v>
+        <v>1.043295705137334</v>
       </c>
       <c r="L5">
-        <v>1.000472590087199</v>
+        <v>1.029553748704148</v>
       </c>
       <c r="M5">
-        <v>0.9737741000243818</v>
+        <v>1.047591077307592</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046237513444867</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041689472131774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9830742873511246</v>
+        <v>1.016954424821026</v>
       </c>
       <c r="D6">
-        <v>1.003184061049036</v>
+        <v>1.033974625036719</v>
       </c>
       <c r="E6">
-        <v>0.9907995792969663</v>
+        <v>1.020117933685782</v>
       </c>
       <c r="F6">
-        <v>0.9639555273799062</v>
+        <v>1.038314787083812</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034894081489486</v>
+        <v>1.047530389899397</v>
       </c>
       <c r="J6">
-        <v>1.002375232250952</v>
+        <v>1.035415940255892</v>
       </c>
       <c r="K6">
-        <v>1.012983023660315</v>
+        <v>1.043428767942025</v>
       </c>
       <c r="L6">
-        <v>1.000744725806024</v>
+        <v>1.02972408600631</v>
       </c>
       <c r="M6">
-        <v>0.9742336432622674</v>
+        <v>1.047722340104413</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046341398321952</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041792282116399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9804758860765534</v>
+        <v>1.015289784131093</v>
       </c>
       <c r="D7">
-        <v>1.001328124342153</v>
+        <v>1.032869083048452</v>
       </c>
       <c r="E7">
-        <v>0.9886270028106481</v>
+        <v>1.018744274168056</v>
       </c>
       <c r="F7">
-        <v>0.9604557540486831</v>
+        <v>1.037206177139374</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034260520372689</v>
+        <v>1.047199978275368</v>
       </c>
       <c r="J7">
-        <v>1.000386279757733</v>
+        <v>1.034304349774331</v>
       </c>
       <c r="K7">
-        <v>1.011407550373444</v>
+        <v>1.042583480252212</v>
       </c>
       <c r="L7">
-        <v>0.9988616076744967</v>
+        <v>1.028618688552901</v>
       </c>
       <c r="M7">
-        <v>0.9710529257404186</v>
+        <v>1.046872515392401</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04566882412715</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041198788191886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9691937255868071</v>
+        <v>1.008151553395328</v>
       </c>
       <c r="D8">
-        <v>0.9932751721674714</v>
+        <v>1.028127248832894</v>
       </c>
       <c r="E8">
-        <v>0.979208038317582</v>
+        <v>1.01286145239717</v>
       </c>
       <c r="F8">
-        <v>0.9452268397367091</v>
+        <v>1.03246650021159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031478104875829</v>
+        <v>1.045751972148517</v>
       </c>
       <c r="J8">
-        <v>0.991734922561232</v>
+        <v>1.0295259102181</v>
       </c>
       <c r="K8">
-        <v>1.004547012704243</v>
+        <v>1.038939234726084</v>
       </c>
       <c r="L8">
-        <v>0.9906772153757125</v>
+        <v>1.02386998046511</v>
       </c>
       <c r="M8">
-        <v>0.957203678810452</v>
+        <v>1.04322394232112</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042781237988108</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038626592590487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9474425539237431</v>
+        <v>0.9948760717761996</v>
       </c>
       <c r="D9">
-        <v>0.9777861795691771</v>
+        <v>1.019326025681806</v>
       </c>
       <c r="E9">
-        <v>0.9611157437759767</v>
+        <v>1.001960854731581</v>
       </c>
       <c r="F9">
-        <v>0.915669824813215</v>
+        <v>1.023717754899758</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025996266576896</v>
+        <v>1.042957617453693</v>
       </c>
       <c r="J9">
-        <v>0.9749982489904568</v>
+        <v>1.020611075759587</v>
       </c>
       <c r="K9">
-        <v>0.9912502444743344</v>
+        <v>1.032113144469112</v>
       </c>
       <c r="L9">
-        <v>0.9748728531769609</v>
+        <v>1.01502219834479</v>
       </c>
       <c r="M9">
-        <v>0.9302972911234478</v>
+        <v>1.036437401104346</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037410142591765</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033796872923251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9313478608483944</v>
+        <v>0.98566385088345</v>
       </c>
       <c r="D10">
-        <v>0.9663676852083564</v>
+        <v>1.013282704622561</v>
       </c>
       <c r="E10">
-        <v>0.9477868004952871</v>
+        <v>0.9944527192860868</v>
       </c>
       <c r="F10">
-        <v>0.8935778321656846</v>
+        <v>1.017784684484148</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02186598753073</v>
+        <v>1.041000328265388</v>
       </c>
       <c r="J10">
-        <v>0.9625773972495952</v>
+        <v>1.014458039605217</v>
       </c>
       <c r="K10">
-        <v>0.9813719452952704</v>
+        <v>1.027416206841617</v>
       </c>
       <c r="L10">
-        <v>0.9631674253183304</v>
+        <v>1.008922859170014</v>
       </c>
       <c r="M10">
-        <v>0.9101769501094853</v>
+        <v>1.031840087670026</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033823382811082</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030492696124161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9239027338698923</v>
+        <v>0.982661672805515</v>
       </c>
       <c r="D11">
-        <v>0.9611005919432422</v>
+        <v>1.011616859537065</v>
       </c>
       <c r="E11">
-        <v>0.9416383969432143</v>
+        <v>0.9921831469157596</v>
       </c>
       <c r="F11">
-        <v>0.8832791970505499</v>
+        <v>1.016540937404083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019939568367108</v>
+        <v>1.040647704298102</v>
       </c>
       <c r="J11">
-        <v>0.9568236517300676</v>
+        <v>1.012773968201969</v>
       </c>
       <c r="K11">
-        <v>0.9767953689504364</v>
+        <v>1.026322974482924</v>
       </c>
       <c r="L11">
-        <v>0.9577517558561023</v>
+        <v>1.007253998724398</v>
       </c>
       <c r="M11">
-        <v>0.9007980200008237</v>
+        <v>1.031157515065235</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033721817167449</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029752791267393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9210550988578724</v>
+        <v>0.9819489026864139</v>
       </c>
       <c r="D12">
-        <v>0.9590887453878556</v>
+        <v>1.011372939552722</v>
       </c>
       <c r="E12">
-        <v>0.9392896925089872</v>
+        <v>0.9917375467964791</v>
       </c>
       <c r="F12">
-        <v>0.879325231397267</v>
+        <v>1.016584761429385</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019200547483807</v>
+        <v>1.040714951163238</v>
       </c>
       <c r="J12">
-        <v>0.9546217792297983</v>
+        <v>1.012537363794256</v>
       </c>
       <c r="K12">
-        <v>0.9750440787712487</v>
+        <v>1.026285448086057</v>
       </c>
       <c r="L12">
-        <v>0.9556803775589404</v>
+        <v>1.007024773001345</v>
       </c>
       <c r="M12">
-        <v>0.8971975677217676</v>
+        <v>1.031400974899931</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034242323761926</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029726258541797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9216698433486481</v>
+        <v>0.982986660186562</v>
       </c>
       <c r="D13">
-        <v>0.9595229291614342</v>
+        <v>1.012239851022797</v>
       </c>
       <c r="E13">
-        <v>0.9397965889551657</v>
+        <v>0.9926964694379016</v>
       </c>
       <c r="F13">
-        <v>0.8801795379060686</v>
+        <v>1.017658931408097</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01936018243789</v>
+        <v>1.04113074318396</v>
       </c>
       <c r="J13">
-        <v>0.9550971688046921</v>
+        <v>1.013433598951148</v>
       </c>
       <c r="K13">
-        <v>0.9754221787072429</v>
+        <v>1.027092993042691</v>
       </c>
       <c r="L13">
-        <v>0.9561275406444376</v>
+        <v>1.007920434805684</v>
       </c>
       <c r="M13">
-        <v>0.8979754684486205</v>
+        <v>1.032412532509442</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035319851020581</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030294717489257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9236690944228695</v>
+        <v>0.9845026047106147</v>
       </c>
       <c r="D14">
-        <v>0.9609354681039067</v>
+        <v>1.013347784244148</v>
       </c>
       <c r="E14">
-        <v>0.9414456312290617</v>
+        <v>0.9940009496730868</v>
       </c>
       <c r="F14">
-        <v>0.8829551079828861</v>
+        <v>1.018874268621806</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019878977338204</v>
+        <v>1.041578318895989</v>
       </c>
       <c r="J14">
-        <v>0.9566430182710201</v>
+        <v>1.0145712119202</v>
       </c>
       <c r="K14">
-        <v>0.9766516964078618</v>
+        <v>1.02803894044475</v>
       </c>
       <c r="L14">
-        <v>0.9575818043275538</v>
+        <v>1.009054011739348</v>
       </c>
       <c r="M14">
-        <v>0.9005028964377801</v>
+        <v>1.03346532476323</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036325876637129</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030964974771508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9248896484748464</v>
+        <v>0.9852630511249874</v>
       </c>
       <c r="D15">
-        <v>0.9617982037436371</v>
+        <v>1.01387176776504</v>
       </c>
       <c r="E15">
-        <v>0.9424527789496934</v>
+        <v>0.9946347979183762</v>
       </c>
       <c r="F15">
-        <v>0.8846475560600182</v>
+        <v>1.019414278194977</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020195422655812</v>
+        <v>1.041769472987854</v>
       </c>
       <c r="J15">
-        <v>0.9575866174040567</v>
+        <v>1.0151071336655</v>
       </c>
       <c r="K15">
-        <v>0.9774022230204713</v>
+        <v>1.028466238430953</v>
       </c>
       <c r="L15">
-        <v>0.9584696487908774</v>
+        <v>1.009586113627073</v>
       </c>
       <c r="M15">
-        <v>0.9020441004274485</v>
+        <v>1.033909179986344</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036714323761595</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031272995131474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9318310828469631</v>
+        <v>0.9889763761155331</v>
       </c>
       <c r="D16">
-        <v>0.9667098874417445</v>
+        <v>1.016272874042846</v>
       </c>
       <c r="E16">
-        <v>0.948186242629665</v>
+        <v>0.9976299834730031</v>
       </c>
       <c r="F16">
-        <v>0.894244401832318</v>
+        <v>1.02175599389288</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021990710752438</v>
+        <v>1.042534518215216</v>
       </c>
       <c r="J16">
-        <v>0.9629506798904112</v>
+        <v>1.017556083074904</v>
       </c>
       <c r="K16">
-        <v>0.9816688596859192</v>
+        <v>1.030318570115708</v>
       </c>
       <c r="L16">
-        <v>0.9635189204614421</v>
+        <v>1.012005357551081</v>
       </c>
       <c r="M16">
-        <v>0.9107840295459556</v>
+        <v>1.035707683961627</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038097059500334</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032585845742631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9360509964778123</v>
+        <v>0.991031334856186</v>
       </c>
       <c r="D17">
-        <v>0.969700005045125</v>
+        <v>1.017535830524308</v>
       </c>
       <c r="E17">
-        <v>0.9516764856460643</v>
+        <v>0.9992470658788202</v>
       </c>
       <c r="F17">
-        <v>0.9000563584933005</v>
+        <v>1.022911613421671</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023078157148546</v>
+        <v>1.042884898823431</v>
       </c>
       <c r="J17">
-        <v>0.9662096145672805</v>
+        <v>1.018838582610498</v>
       </c>
       <c r="K17">
-        <v>0.9842610126798631</v>
+        <v>1.031243223839369</v>
       </c>
       <c r="L17">
-        <v>0.9665883936933943</v>
+        <v>1.013268309649364</v>
       </c>
       <c r="M17">
-        <v>0.9160773724032711</v>
+        <v>1.036529500812011</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038617368391494</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033242209019694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9384673021917279</v>
+        <v>0.991827865896585</v>
       </c>
       <c r="D18">
-        <v>0.9714134812071082</v>
+        <v>1.017902138049469</v>
       </c>
       <c r="E18">
-        <v>0.9536765665448523</v>
+        <v>0.9998004380718893</v>
       </c>
       <c r="F18">
-        <v>0.9033771399297751</v>
+        <v>1.023094138919494</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023699345605591</v>
+        <v>1.04289404554331</v>
       </c>
       <c r="J18">
-        <v>0.9680749162364508</v>
+        <v>1.019203201761891</v>
       </c>
       <c r="K18">
-        <v>0.9857446000258175</v>
+        <v>1.031418850160865</v>
       </c>
       <c r="L18">
-        <v>0.9683458632329471</v>
+        <v>1.013622617103948</v>
       </c>
       <c r="M18">
-        <v>0.9191018626255586</v>
+        <v>1.036525798685143</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038376251217752</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033354700383823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9392838373024741</v>
+        <v>0.9915324817518838</v>
       </c>
       <c r="D19">
-        <v>0.971992726666046</v>
+        <v>1.017503587397645</v>
       </c>
       <c r="E19">
-        <v>0.9543527069977771</v>
+        <v>0.9994396014554801</v>
       </c>
       <c r="F19">
-        <v>0.9044981896503324</v>
+        <v>1.022423564519343</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02390900627163</v>
+        <v>1.042623630787453</v>
       </c>
       <c r="J19">
-        <v>0.9687051231498862</v>
+        <v>1.018782720157482</v>
       </c>
       <c r="K19">
-        <v>0.9862458245850256</v>
+        <v>1.030963913385503</v>
       </c>
       <c r="L19">
-        <v>0.9689397385446279</v>
+        <v>1.013203419713789</v>
       </c>
       <c r="M19">
-        <v>0.9201228854213181</v>
+        <v>1.035803616533053</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037478842884247</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033039466201362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9356029740445713</v>
+        <v>0.9881309868023309</v>
       </c>
       <c r="D20">
-        <v>0.9693824049172073</v>
+        <v>1.01492228034532</v>
       </c>
       <c r="E20">
-        <v>0.9513057643057621</v>
+        <v>0.9964724650200786</v>
       </c>
       <c r="F20">
-        <v>0.8994400715351156</v>
+        <v>1.019381235950398</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022962857350667</v>
+        <v>1.041550908754772</v>
       </c>
       <c r="J20">
-        <v>0.9658636958419369</v>
+        <v>1.016127232458076</v>
       </c>
       <c r="K20">
-        <v>0.983985875538544</v>
+        <v>1.028707718052096</v>
       </c>
       <c r="L20">
-        <v>0.9662625211161399</v>
+        <v>1.010577626779751</v>
       </c>
       <c r="M20">
-        <v>0.9155160730280801</v>
+        <v>1.033091640769275</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034803252584199</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031448193348041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9230827314117618</v>
+        <v>0.9809495040018831</v>
       </c>
       <c r="D21">
-        <v>0.960521103688329</v>
+        <v>1.010163621440331</v>
       </c>
       <c r="E21">
-        <v>0.940961897384174</v>
+        <v>0.9906015365161168</v>
       </c>
       <c r="F21">
-        <v>0.8821414935836848</v>
+        <v>1.014643733201153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019726877933782</v>
+        <v>1.039949006930755</v>
       </c>
       <c r="J21">
-        <v>0.9561896654785497</v>
+        <v>1.011265891065177</v>
       </c>
       <c r="K21">
-        <v>0.9762911101777709</v>
+        <v>1.024954965770446</v>
       </c>
       <c r="L21">
-        <v>0.9571552793372406</v>
+        <v>1.005763180464</v>
       </c>
       <c r="M21">
-        <v>0.899762006751077</v>
+        <v>1.029352886876193</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031803178204804</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028798101461955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9147280279107909</v>
+        <v>0.9763458863282725</v>
       </c>
       <c r="D22">
-        <v>0.9546243638849597</v>
+        <v>1.007129639825808</v>
       </c>
       <c r="E22">
-        <v>0.9340771069231681</v>
+        <v>0.9868522010694952</v>
       </c>
       <c r="F22">
-        <v>0.8705082779796951</v>
+        <v>1.011660126512082</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017554687626799</v>
+        <v>1.038920162334265</v>
       </c>
       <c r="J22">
-        <v>0.949727401851459</v>
+        <v>1.00816057064145</v>
       </c>
       <c r="K22">
-        <v>0.9711516946889321</v>
+        <v>1.02256116804582</v>
       </c>
       <c r="L22">
-        <v>0.9510782921287804</v>
+        <v>1.002688696778192</v>
       </c>
       <c r="M22">
-        <v>0.8891701182415136</v>
+        <v>1.027004079724291</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029944229557056</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027091948786359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9192070187556253</v>
+        <v>0.9787739933077941</v>
       </c>
       <c r="D23">
-        <v>0.9577839195740223</v>
+        <v>1.008721169510234</v>
       </c>
       <c r="E23">
-        <v>0.9377662953252467</v>
+        <v>0.9888246212366024</v>
       </c>
       <c r="F23">
-        <v>0.876754500687943</v>
+        <v>1.013229810580347</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018720336682166</v>
+        <v>1.039456173808606</v>
       </c>
       <c r="J23">
-        <v>0.9531924688885931</v>
+        <v>1.009791449322648</v>
       </c>
       <c r="K23">
-        <v>0.973907311404258</v>
+        <v>1.023812959633242</v>
       </c>
       <c r="L23">
-        <v>0.9543361075475428</v>
+        <v>1.004302733802381</v>
       </c>
       <c r="M23">
-        <v>0.8948568430519611</v>
+        <v>1.028236810510245</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030919867203685</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027967308933018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9358055546832766</v>
+        <v>0.9881069603841313</v>
       </c>
       <c r="D24">
-        <v>0.9695260088277916</v>
+        <v>1.014867060410361</v>
       </c>
       <c r="E24">
-        <v>0.951473387096109</v>
+        <v>0.9964316643288954</v>
       </c>
       <c r="F24">
-        <v>0.8997187576862465</v>
+        <v>1.019295287154463</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023014996650746</v>
+        <v>1.041507212869898</v>
       </c>
       <c r="J24">
-        <v>0.9660201109701881</v>
+        <v>1.016070636337128</v>
       </c>
       <c r="K24">
-        <v>0.9841102853778251</v>
+        <v>1.028638028891028</v>
       </c>
       <c r="L24">
-        <v>0.9664098700274163</v>
+        <v>1.010521735067369</v>
       </c>
       <c r="M24">
-        <v>0.9157698936188435</v>
+        <v>1.032991822126527</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034683180860088</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031371350502898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9533184412815046</v>
+        <v>0.9984314379608406</v>
       </c>
       <c r="D25">
-        <v>0.9819646185840324</v>
+        <v>1.021692031973932</v>
       </c>
       <c r="E25">
-        <v>0.9659944086154072</v>
+        <v>1.004880642354821</v>
       </c>
       <c r="F25">
-        <v>0.9236844618217289</v>
+        <v>1.026056159068219</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027490041256281</v>
+        <v>1.043728613505573</v>
       </c>
       <c r="J25">
-        <v>0.9795258485867435</v>
+        <v>1.023011706030476</v>
       </c>
       <c r="K25">
-        <v>0.9948495151603194</v>
+        <v>1.033962687433207</v>
       </c>
       <c r="L25">
-        <v>0.9791445998866286</v>
+        <v>1.017403662174644</v>
       </c>
       <c r="M25">
-        <v>0.9375955165350297</v>
+        <v>1.038263017247303</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038855000131645</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035133306231519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.006239923674938</v>
+        <v>1.005402131081351</v>
       </c>
       <c r="D2">
-        <v>1.026848529934859</v>
+        <v>1.025887738142534</v>
       </c>
       <c r="E2">
-        <v>1.011284108505774</v>
+        <v>1.0106878005012</v>
       </c>
       <c r="F2">
-        <v>1.031198321867595</v>
+        <v>1.030476674962117</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045347807873917</v>
+        <v>1.045084500234436</v>
       </c>
       <c r="J2">
-        <v>1.028235588140466</v>
+        <v>1.027422457210394</v>
       </c>
       <c r="K2">
-        <v>1.037946076913631</v>
+        <v>1.036997822554255</v>
       </c>
       <c r="L2">
-        <v>1.022588444721658</v>
+        <v>1.022000218626642</v>
       </c>
       <c r="M2">
-        <v>1.042239473821484</v>
+        <v>1.041527141848294</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042002099215019</v>
+        <v>1.041438337170936</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037901431915602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037239715501521</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021569684317464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011757769481774</v>
+        <v>1.010573420778641</v>
       </c>
       <c r="D3">
-        <v>1.030512383067315</v>
+        <v>1.029187051718718</v>
       </c>
       <c r="E3">
-        <v>1.015827273354949</v>
+        <v>1.014911149936076</v>
       </c>
       <c r="F3">
-        <v>1.034854776597502</v>
+        <v>1.033856593886495</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046479470863857</v>
+        <v>1.046046372028081</v>
       </c>
       <c r="J3">
-        <v>1.031932958158985</v>
+        <v>1.030779935828497</v>
       </c>
       <c r="K3">
-        <v>1.04076918798112</v>
+        <v>1.039459617330586</v>
       </c>
       <c r="L3">
-        <v>1.026261568601176</v>
+        <v>1.025356729616238</v>
       </c>
       <c r="M3">
-        <v>1.04506029234034</v>
+        <v>1.044073852214629</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044234579873516</v>
+        <v>1.043453882252993</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039894958204415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038977474878474</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022157317519728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015247263555115</v>
+        <v>1.013848101477052</v>
       </c>
       <c r="D4">
-        <v>1.032832731080062</v>
+        <v>1.031279928906822</v>
       </c>
       <c r="E4">
-        <v>1.018705746574734</v>
+        <v>1.017591319709601</v>
       </c>
       <c r="F4">
-        <v>1.037175343929571</v>
+        <v>1.036004969534724</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047183739778269</v>
+        <v>1.046644743385323</v>
       </c>
       <c r="J4">
-        <v>1.034268823994202</v>
+        <v>1.032904084483315</v>
       </c>
       <c r="K4">
-        <v>1.042550407227988</v>
+        <v>1.041014939734159</v>
       </c>
       <c r="L4">
-        <v>1.028583532404555</v>
+        <v>1.027481969685378</v>
       </c>
       <c r="M4">
-        <v>1.046844880101961</v>
+        <v>1.045687431036519</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P4">
-        <v>1.045646952802707</v>
+        <v>1.044730915380429</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041155329489918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040078196111789</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022525768762998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016702643016639</v>
+        <v>1.015214676287144</v>
       </c>
       <c r="D5">
-        <v>1.033803649874817</v>
+        <v>1.032156547338189</v>
       </c>
       <c r="E5">
-        <v>1.019908537434286</v>
+        <v>1.018712047033006</v>
       </c>
       <c r="F5">
-        <v>1.03814585257947</v>
+        <v>1.036904163320742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047476996209309</v>
+        <v>1.046894001614628</v>
       </c>
       <c r="J5">
-        <v>1.035244574707048</v>
+        <v>1.033792087213375</v>
       </c>
       <c r="K5">
-        <v>1.043295705137334</v>
+        <v>1.041666493035293</v>
       </c>
       <c r="L5">
-        <v>1.029553748704148</v>
+        <v>1.028370686933656</v>
       </c>
       <c r="M5">
-        <v>1.047591077307592</v>
+        <v>1.046362730553709</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046237513444867</v>
+        <v>1.045265366362698</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041689472131774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04054676542908</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022680265370068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016954424821026</v>
+        <v>1.015450908088084</v>
       </c>
       <c r="D6">
-        <v>1.033974625036719</v>
+        <v>1.032311082668483</v>
       </c>
       <c r="E6">
-        <v>1.020117933685782</v>
+        <v>1.018906973874137</v>
       </c>
       <c r="F6">
-        <v>1.038314787083812</v>
+        <v>1.037060653521998</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047530389899397</v>
+        <v>1.04693958589381</v>
       </c>
       <c r="J6">
-        <v>1.035415940255892</v>
+        <v>1.033948083026632</v>
       </c>
       <c r="K6">
-        <v>1.043428767942025</v>
+        <v>1.041783210394515</v>
       </c>
       <c r="L6">
-        <v>1.02972408600631</v>
+        <v>1.028526652314306</v>
       </c>
       <c r="M6">
-        <v>1.047722340104413</v>
+        <v>1.046481620083303</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046341398321952</v>
+        <v>1.045359458831318</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041792282116399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040638889490015</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022708908608649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015289784131093</v>
+        <v>1.013887325337544</v>
       </c>
       <c r="D7">
-        <v>1.032869083048452</v>
+        <v>1.031313038636509</v>
       </c>
       <c r="E7">
-        <v>1.018744274168056</v>
+        <v>1.01762652338601</v>
       </c>
       <c r="F7">
-        <v>1.037206177139374</v>
+        <v>1.036033304484264</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047199978275368</v>
+        <v>1.046659080460252</v>
       </c>
       <c r="J7">
-        <v>1.034304349774331</v>
+        <v>1.032936378333584</v>
       </c>
       <c r="K7">
-        <v>1.042583480252212</v>
+        <v>1.041044799487399</v>
       </c>
       <c r="L7">
-        <v>1.028618688552901</v>
+        <v>1.027513834816143</v>
       </c>
       <c r="M7">
-        <v>1.046872515392401</v>
+        <v>1.045712590437141</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04566882412715</v>
+        <v>1.044750827242879</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041198788191886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04012138828164</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022535594980088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008151553395328</v>
+        <v>1.007191711744823</v>
       </c>
       <c r="D8">
-        <v>1.028127248832894</v>
+        <v>1.027038757590118</v>
       </c>
       <c r="E8">
-        <v>1.01286145239717</v>
+        <v>1.012152149301026</v>
       </c>
       <c r="F8">
-        <v>1.03246650021159</v>
+        <v>1.031647839430592</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045751972148517</v>
+        <v>1.045428640432393</v>
       </c>
       <c r="J8">
-        <v>1.0295259102181</v>
+        <v>1.02859333483143</v>
       </c>
       <c r="K8">
-        <v>1.038939234726084</v>
+        <v>1.037864515925561</v>
       </c>
       <c r="L8">
-        <v>1.02386998046511</v>
+        <v>1.023169990062964</v>
       </c>
       <c r="M8">
-        <v>1.04322394232112</v>
+        <v>1.042415528207477</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042781237988108</v>
+        <v>1.042141434154439</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038626592590487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037877724291879</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021780687795449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9948760717761996</v>
+        <v>0.9947788307017523</v>
       </c>
       <c r="D9">
-        <v>1.019326025681806</v>
+        <v>1.019134270981541</v>
       </c>
       <c r="E9">
-        <v>1.001960854731581</v>
+        <v>1.002046817378384</v>
       </c>
       <c r="F9">
-        <v>1.023717754899758</v>
+        <v>1.023581832631194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042957617453693</v>
+        <v>1.043052438176328</v>
       </c>
       <c r="J9">
-        <v>1.020611075759587</v>
+        <v>1.020517318762606</v>
       </c>
       <c r="K9">
-        <v>1.032113144469112</v>
+        <v>1.031924352723254</v>
       </c>
       <c r="L9">
-        <v>1.01502219834479</v>
+        <v>1.015106773457934</v>
       </c>
       <c r="M9">
-        <v>1.036437401104346</v>
+        <v>1.036303556011197</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037410142591765</v>
+        <v>1.037304212710058</v>
       </c>
       <c r="Q9">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R9">
-        <v>1.033796872923251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033674167243176</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020343825306552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.98566385088345</v>
+        <v>0.9861819435283978</v>
       </c>
       <c r="D10">
-        <v>1.013282704622561</v>
+        <v>1.01372094299206</v>
       </c>
       <c r="E10">
-        <v>0.9944527192860868</v>
+        <v>0.995101902485342</v>
       </c>
       <c r="F10">
-        <v>1.017784684484148</v>
+        <v>1.018130705412288</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041000328265388</v>
+        <v>1.041385917517306</v>
       </c>
       <c r="J10">
-        <v>1.014458039605217</v>
+        <v>1.01495473295124</v>
       </c>
       <c r="K10">
-        <v>1.027416206841617</v>
+        <v>1.027846803319027</v>
       </c>
       <c r="L10">
-        <v>1.008922859170014</v>
+        <v>1.009560160357766</v>
       </c>
       <c r="M10">
-        <v>1.031840087670026</v>
+        <v>1.032180142889781</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033823382811082</v>
+        <v>1.034092499226288</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030492696124161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030809645395997</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01935548442425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.982661672805515</v>
+        <v>0.9832727106002234</v>
       </c>
       <c r="D11">
-        <v>1.011616859537065</v>
+        <v>1.012161553338007</v>
       </c>
       <c r="E11">
-        <v>0.9921831469157596</v>
+        <v>0.9928984195423386</v>
       </c>
       <c r="F11">
-        <v>1.016540937404083</v>
+        <v>1.016966238577601</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040647704298102</v>
+        <v>1.041059525655686</v>
       </c>
       <c r="J11">
-        <v>1.012773968201969</v>
+        <v>1.013358309870825</v>
       </c>
       <c r="K11">
-        <v>1.026322974482924</v>
+        <v>1.026857708018581</v>
       </c>
       <c r="L11">
-        <v>1.007253998724398</v>
+        <v>1.007955515540245</v>
       </c>
       <c r="M11">
-        <v>1.031157515065235</v>
+        <v>1.031575135631486</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033721817167449</v>
+        <v>1.034052150140162</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029752791267393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030146587846977</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019211171790158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9819489026864139</v>
+        <v>0.9825192481703861</v>
       </c>
       <c r="D12">
-        <v>1.011372939552722</v>
+        <v>1.011886029226269</v>
       </c>
       <c r="E12">
-        <v>0.9917375467964791</v>
+        <v>0.9924004871230134</v>
       </c>
       <c r="F12">
-        <v>1.016584761429385</v>
+        <v>1.016984064062008</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040714951163238</v>
+        <v>1.041094072139701</v>
       </c>
       <c r="J12">
-        <v>1.012537363794256</v>
+        <v>1.013082303112651</v>
       </c>
       <c r="K12">
-        <v>1.026285448086057</v>
+        <v>1.026789000355502</v>
       </c>
       <c r="L12">
-        <v>1.007024773001345</v>
+        <v>1.007674744583632</v>
       </c>
       <c r="M12">
-        <v>1.031400974899931</v>
+        <v>1.03179295291938</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034242323761926</v>
+        <v>1.034552267851559</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029726258541797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030098009743776</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019268563187794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.982986660186562</v>
+        <v>0.9834077524237617</v>
       </c>
       <c r="D13">
-        <v>1.012239851022797</v>
+        <v>1.01261023563403</v>
       </c>
       <c r="E13">
-        <v>0.9926964694379016</v>
+        <v>0.9932097395145006</v>
       </c>
       <c r="F13">
-        <v>1.017658931408097</v>
+        <v>1.017947499801886</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04113074318396</v>
+        <v>1.04142817146726</v>
       </c>
       <c r="J13">
-        <v>1.013433598951148</v>
+        <v>1.01383605483833</v>
       </c>
       <c r="K13">
-        <v>1.027092993042691</v>
+        <v>1.02745652998993</v>
       </c>
       <c r="L13">
-        <v>1.007920434805684</v>
+        <v>1.00842372123847</v>
       </c>
       <c r="M13">
-        <v>1.032412532509442</v>
+        <v>1.032695838986726</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035319851020581</v>
+        <v>1.035543809900886</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030294717489257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030567219308846</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019497245887972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9845026047106147</v>
+        <v>0.9847720233622201</v>
       </c>
       <c r="D14">
-        <v>1.013347784244148</v>
+        <v>1.013569502191796</v>
       </c>
       <c r="E14">
-        <v>0.9940009496730868</v>
+        <v>0.9943672322424552</v>
       </c>
       <c r="F14">
-        <v>1.018874268621806</v>
+        <v>1.01904828067101</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041578318895989</v>
+        <v>1.041797230800155</v>
       </c>
       <c r="J14">
-        <v>1.0145712119202</v>
+        <v>1.014828899870887</v>
       </c>
       <c r="K14">
-        <v>1.02803894044475</v>
+        <v>1.028256615105508</v>
       </c>
       <c r="L14">
-        <v>1.009054011739348</v>
+        <v>1.009413271345773</v>
       </c>
       <c r="M14">
-        <v>1.03346532476323</v>
+        <v>1.033636207878917</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036325876637129</v>
+        <v>1.036460944543169</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030964974771508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031134472319892</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019734627623649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9852630511249874</v>
+        <v>0.9854710150136123</v>
       </c>
       <c r="D15">
-        <v>1.01387176776504</v>
+        <v>1.014032070553201</v>
       </c>
       <c r="E15">
-        <v>0.9946347979183762</v>
+        <v>0.9949431719706674</v>
       </c>
       <c r="F15">
-        <v>1.019414278194977</v>
+        <v>1.019541185671252</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041769472987854</v>
+        <v>1.041957975688416</v>
       </c>
       <c r="J15">
-        <v>1.0151071336655</v>
+        <v>1.015306129568115</v>
       </c>
       <c r="K15">
-        <v>1.028466238430953</v>
+        <v>1.028623641571277</v>
       </c>
       <c r="L15">
-        <v>1.009586113627073</v>
+        <v>1.00988862502978</v>
       </c>
       <c r="M15">
-        <v>1.033909179986344</v>
+        <v>1.034033824081388</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036714323761595</v>
+        <v>1.0368128412483</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031272995131474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031400444115866</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01983376662916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9889763761155331</v>
+        <v>0.9889527645827032</v>
       </c>
       <c r="D16">
-        <v>1.016272874042846</v>
+        <v>1.016194343152122</v>
       </c>
       <c r="E16">
-        <v>0.9976299834730031</v>
+        <v>0.9977301396638597</v>
       </c>
       <c r="F16">
-        <v>1.02175599389288</v>
+        <v>1.021700930302666</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042534518215216</v>
+        <v>1.042616885297861</v>
       </c>
       <c r="J16">
-        <v>1.017556083074904</v>
+        <v>1.017533435188375</v>
       </c>
       <c r="K16">
-        <v>1.030318570115708</v>
+        <v>1.030241395138213</v>
       </c>
       <c r="L16">
-        <v>1.012005357551081</v>
+        <v>1.012103699786456</v>
       </c>
       <c r="M16">
-        <v>1.035707683961627</v>
+        <v>1.035653557938849</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038097059500334</v>
+        <v>1.038054277563626</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032585845742631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032547724599554</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020216205864441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.991031334856186</v>
+        <v>0.9909094025005232</v>
       </c>
       <c r="D17">
-        <v>1.017535830524308</v>
+        <v>1.017351795451167</v>
       </c>
       <c r="E17">
-        <v>0.9992470658788202</v>
+        <v>0.9992641178936443</v>
       </c>
       <c r="F17">
-        <v>1.022911613421671</v>
+        <v>1.022776766939865</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042884898823431</v>
+        <v>1.042926658605908</v>
       </c>
       <c r="J17">
-        <v>1.018838582610498</v>
+        <v>1.018721457617989</v>
       </c>
       <c r="K17">
-        <v>1.031243223839369</v>
+        <v>1.031062274507288</v>
       </c>
       <c r="L17">
-        <v>1.013268309649364</v>
+        <v>1.013285062103007</v>
       </c>
       <c r="M17">
-        <v>1.036529500812011</v>
+        <v>1.036396884694782</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038617368391494</v>
+        <v>1.038512536322048</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033242209019694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033130956609799</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020384483412899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.991827865896585</v>
+        <v>0.9917161194235294</v>
       </c>
       <c r="D18">
-        <v>1.017902138049469</v>
+        <v>1.017721014786371</v>
       </c>
       <c r="E18">
-        <v>0.9998004380718893</v>
+        <v>0.9998377757279275</v>
       </c>
       <c r="F18">
-        <v>1.023094138919494</v>
+        <v>1.0229625933257</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04289404554331</v>
+        <v>1.042950246755359</v>
       </c>
       <c r="J18">
-        <v>1.019203201761891</v>
+        <v>1.01909577649885</v>
       </c>
       <c r="K18">
-        <v>1.031418850160865</v>
+        <v>1.031240714108931</v>
       </c>
       <c r="L18">
-        <v>1.013622617103948</v>
+        <v>1.013659309961731</v>
       </c>
       <c r="M18">
-        <v>1.036525798685143</v>
+        <v>1.036396394299658</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038376251217752</v>
+        <v>1.038273936584552</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033354700383823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033244300303018</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020372456351619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9915324817518838</v>
+        <v>0.9915209044934007</v>
       </c>
       <c r="D19">
-        <v>1.017503587397645</v>
+        <v>1.017416066135466</v>
       </c>
       <c r="E19">
-        <v>0.9994396014554801</v>
+        <v>0.9995820193947528</v>
       </c>
       <c r="F19">
-        <v>1.022423564519343</v>
+        <v>1.02236479236746</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042623630787453</v>
+        <v>1.042739195526078</v>
       </c>
       <c r="J19">
-        <v>1.018782720157482</v>
+        <v>1.018771588275543</v>
       </c>
       <c r="K19">
-        <v>1.030963913385503</v>
+        <v>1.030877829151706</v>
       </c>
       <c r="L19">
-        <v>1.013203419713789</v>
+        <v>1.013343389438494</v>
       </c>
       <c r="M19">
-        <v>1.035803616533053</v>
+        <v>1.035745797447935</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037478842884247</v>
+        <v>1.037433112735036</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033039466201362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032994778656098</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020214557141967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9881309868023309</v>
+        <v>0.9884782370667462</v>
       </c>
       <c r="D20">
-        <v>1.01492228034532</v>
+        <v>1.015187395775898</v>
       </c>
       <c r="E20">
-        <v>0.9964724650200786</v>
+        <v>0.9969643744071944</v>
       </c>
       <c r="F20">
-        <v>1.019381235950398</v>
+        <v>1.019594468276689</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041550908754772</v>
+        <v>1.041855151871507</v>
       </c>
       <c r="J20">
-        <v>1.016127232458076</v>
+        <v>1.01646064391477</v>
       </c>
       <c r="K20">
-        <v>1.028707718052096</v>
+        <v>1.028968348483417</v>
       </c>
       <c r="L20">
-        <v>1.010577626779751</v>
+        <v>1.011060812480083</v>
       </c>
       <c r="M20">
-        <v>1.033091640769275</v>
+        <v>1.033301306126897</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034803252584199</v>
+        <v>1.034969181659911</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031448193348041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031649053210312</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019636672827089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9809495040018831</v>
+        <v>0.9818093936237875</v>
       </c>
       <c r="D21">
-        <v>1.010163621440331</v>
+        <v>1.010946324429586</v>
       </c>
       <c r="E21">
-        <v>0.9906015365161168</v>
+        <v>0.9915649814428156</v>
       </c>
       <c r="F21">
-        <v>1.014643733201153</v>
+        <v>1.015254459783824</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039949006930755</v>
+        <v>1.040496122488135</v>
       </c>
       <c r="J21">
-        <v>1.011265891065177</v>
+        <v>1.012087848195529</v>
       </c>
       <c r="K21">
-        <v>1.024954965770446</v>
+        <v>1.025723241117727</v>
       </c>
       <c r="L21">
-        <v>1.005763180464</v>
+        <v>1.006707939557815</v>
       </c>
       <c r="M21">
-        <v>1.029352886876193</v>
+        <v>1.029952482382309</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031803178204804</v>
+        <v>1.03227772350265</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028798101461955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029358245376225</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018826178351581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9763458863282725</v>
+        <v>0.977537845650005</v>
       </c>
       <c r="D22">
-        <v>1.007129639825808</v>
+        <v>1.008244623655487</v>
       </c>
       <c r="E22">
-        <v>0.9868522010694952</v>
+        <v>0.9881196620797904</v>
       </c>
       <c r="F22">
-        <v>1.011660126512082</v>
+        <v>1.012526714039869</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038920162334265</v>
+        <v>1.039622348016491</v>
       </c>
       <c r="J22">
-        <v>1.00816057064145</v>
+        <v>1.009296593366188</v>
       </c>
       <c r="K22">
-        <v>1.02256116804582</v>
+        <v>1.023654503367365</v>
       </c>
       <c r="L22">
-        <v>1.002688696778192</v>
+        <v>1.003930202672916</v>
       </c>
       <c r="M22">
-        <v>1.027004079724291</v>
+        <v>1.027854032863308</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029944229557056</v>
+        <v>1.03061692019683</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027091948786359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027880649521951</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018308817851023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9787739933077941</v>
+        <v>0.9797911924378595</v>
       </c>
       <c r="D23">
-        <v>1.008721169510234</v>
+        <v>1.009661332236218</v>
       </c>
       <c r="E23">
-        <v>0.9888246212366024</v>
+        <v>0.9899325706985466</v>
       </c>
       <c r="F23">
-        <v>1.013229810580347</v>
+        <v>1.013961759715503</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039456173808606</v>
+        <v>1.040077324424106</v>
       </c>
       <c r="J23">
-        <v>1.009791449322648</v>
+        <v>1.010762442047766</v>
       </c>
       <c r="K23">
-        <v>1.023812959633242</v>
+        <v>1.02473535986132</v>
       </c>
       <c r="L23">
-        <v>1.004302733802381</v>
+        <v>1.005388633986012</v>
       </c>
       <c r="M23">
-        <v>1.028236810510245</v>
+        <v>1.028955087340477</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030919867203685</v>
+        <v>1.031488342613263</v>
       </c>
       <c r="Q23">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R23">
-        <v>1.027967308933018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028634198994762</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018576596399918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9881069603841313</v>
+        <v>0.9884676177589012</v>
       </c>
       <c r="D24">
-        <v>1.014867060410361</v>
+        <v>1.015144315392485</v>
       </c>
       <c r="E24">
-        <v>0.9964316643288954</v>
+        <v>0.9969380153546779</v>
       </c>
       <c r="F24">
-        <v>1.019295287154463</v>
+        <v>1.019518091185454</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041507212869898</v>
+        <v>1.041819820267819</v>
       </c>
       <c r="J24">
-        <v>1.016070636337128</v>
+        <v>1.016416940137543</v>
       </c>
       <c r="K24">
-        <v>1.028638028891028</v>
+        <v>1.028910598943159</v>
       </c>
       <c r="L24">
-        <v>1.010521735067369</v>
+        <v>1.011019117099999</v>
       </c>
       <c r="M24">
-        <v>1.032991822126527</v>
+        <v>1.033210903087262</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034683180860088</v>
+        <v>1.034856570144471</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031371350502898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03157798411231</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019609524905437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9984314379608406</v>
+        <v>0.998096639983026</v>
       </c>
       <c r="D25">
-        <v>1.021692031973932</v>
+        <v>1.021255610358799</v>
       </c>
       <c r="E25">
-        <v>1.004880642354821</v>
+        <v>1.004747289900642</v>
       </c>
       <c r="F25">
-        <v>1.026056159068219</v>
+        <v>1.025733447818511</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043728613505573</v>
+        <v>1.043708599706481</v>
       </c>
       <c r="J25">
-        <v>1.023011706030476</v>
+        <v>1.02268823001089</v>
       </c>
       <c r="K25">
-        <v>1.033962687433207</v>
+        <v>1.033532683757533</v>
       </c>
       <c r="L25">
-        <v>1.017403662174644</v>
+        <v>1.017272354613546</v>
       </c>
       <c r="M25">
-        <v>1.038263017247303</v>
+        <v>1.037944999999147</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038855000131645</v>
+        <v>1.038603310181818</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035133306231519</v>
+        <v>1.034842842826557</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020740050660983</v>
       </c>
     </row>
   </sheetData>
